--- a/Code/Results/Cases/Case_2_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_line/loading_percent.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.52312838376143</v>
+        <v>21.52312838376148</v>
       </c>
       <c r="C2">
-        <v>16.03653554324297</v>
+        <v>16.03653554324302</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -427,10 +427,10 @@
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>21.10673897621161</v>
+        <v>21.10673897621156</v>
       </c>
       <c r="H2">
-        <v>17.1979603289339</v>
+        <v>17.19796032893378</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.378764081547629</v>
+        <v>9.378764081547647</v>
       </c>
       <c r="L2">
-        <v>15.44462652155003</v>
+        <v>15.44462652155006</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.03415628558772</v>
+        <v>20.03415628558768</v>
       </c>
       <c r="C3">
-        <v>14.93174877213963</v>
+        <v>14.93174877213951</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.669286265559713</v>
+        <v>6.669286265559701</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>20.41739155305141</v>
+        <v>20.41739155305144</v>
       </c>
       <c r="H3">
-        <v>17.01046015247355</v>
+        <v>17.01046015247357</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.924353707176728</v>
+        <v>8.92435370717674</v>
       </c>
       <c r="L3">
-        <v>14.40423940745432</v>
+        <v>14.4042394074543</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.07090876804016</v>
+        <v>19.07090876804018</v>
       </c>
       <c r="C4">
-        <v>14.21914840410695</v>
+        <v>14.21914840410698</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.619975019953796</v>
+        <v>6.619975019953992</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>20.01868290497398</v>
+        <v>20.01868290497379</v>
       </c>
       <c r="H4">
-        <v>16.92345387402661</v>
+        <v>16.92345387402641</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.642704930729384</v>
+        <v>8.642704930729433</v>
       </c>
       <c r="L4">
-        <v>13.73312411450643</v>
+        <v>13.73312411450642</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.66589062311149</v>
+        <v>18.66589062311145</v>
       </c>
       <c r="C5">
-        <v>13.92001396184287</v>
+        <v>13.92001396184286</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.601193996165564</v>
+        <v>6.601193996165502</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>19.86232251596826</v>
+        <v>19.86232251596835</v>
       </c>
       <c r="H5">
-        <v>16.89466697965777</v>
+        <v>16.89466697965792</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.527385589548647</v>
+        <v>8.527385589548617</v>
       </c>
       <c r="L5">
-        <v>13.45141483198019</v>
+        <v>13.45141483198017</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59787891408218</v>
+        <v>18.59787891408214</v>
       </c>
       <c r="C6">
-        <v>13.86981123026058</v>
+        <v>13.86981123026056</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.598153481590758</v>
+        <v>6.598153481590805</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>19.83672644904518</v>
+        <v>19.83672644904521</v>
       </c>
       <c r="H6">
-        <v>16.89027778133315</v>
+        <v>16.89027778133321</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.508207919433875</v>
+        <v>8.508207919433888</v>
       </c>
       <c r="L6">
-        <v>13.40413785048398</v>
+        <v>13.40413785048393</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.06549731931497</v>
+        <v>19.06549731931502</v>
       </c>
       <c r="C7">
-        <v>14.21514973986242</v>
+        <v>14.21514973986244</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.619716471181874</v>
+        <v>6.619716471181866</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
         <v>20.01654949442506</v>
       </c>
       <c r="H7">
-        <v>16.92303918021382</v>
+        <v>16.9230391802138</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.641151726350252</v>
+        <v>8.641151726350266</v>
       </c>
       <c r="L7">
-        <v>13.72935830618665</v>
+        <v>13.72935830618666</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>21.01980259054671</v>
       </c>
       <c r="C8">
-        <v>15.66263305811156</v>
+        <v>15.66263305811154</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.726518356164676</v>
+        <v>6.72651835616472</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.86392442135185</v>
+        <v>20.86392442135195</v>
       </c>
       <c r="H8">
-        <v>17.12723546713294</v>
+        <v>17.12723546713307</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.222694205038076</v>
+        <v>9.222694205038099</v>
       </c>
       <c r="L8">
-        <v>15.09254402835679</v>
+        <v>15.09254402835675</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.47116156994221</v>
+        <v>24.47116156994225</v>
       </c>
       <c r="C9">
-        <v>18.2358605089748</v>
+        <v>18.23586050897486</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.980678052359818</v>
+        <v>6.980678052359873</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
@@ -696,7 +696,7 @@
         <v>22.72289113695876</v>
       </c>
       <c r="H9">
-        <v>17.7681610208844</v>
+        <v>17.76816102088438</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.33833524331141</v>
+        <v>10.33833524331143</v>
       </c>
       <c r="L9">
-        <v>17.5145241821567</v>
+        <v>17.51452418215672</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.78647020743455</v>
+        <v>26.78647020743436</v>
       </c>
       <c r="C10">
-        <v>19.97485832226062</v>
+        <v>19.97485832226059</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.197341113798061</v>
+        <v>7.197341113797985</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>24.21332315372248</v>
+        <v>24.21332315372249</v>
       </c>
       <c r="H10">
-        <v>18.40864352741477</v>
+        <v>18.40864352741489</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.2864581613016</v>
+        <v>11.28645816130165</v>
       </c>
       <c r="L10">
-        <v>19.14905246319849</v>
+        <v>19.14905246319844</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.79483578162365</v>
+        <v>27.79483578162359</v>
       </c>
       <c r="C11">
-        <v>20.73565644687812</v>
+        <v>20.73565644687814</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.303020393313569</v>
+        <v>7.303020393313559</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>24.9199601515302</v>
+        <v>24.91996015153012</v>
       </c>
       <c r="H11">
-        <v>18.74161173419841</v>
+        <v>18.74161173419837</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>11.73646636398687</v>
       </c>
       <c r="L11">
-        <v>19.86331526155026</v>
+        <v>19.86331526155025</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.17049567653996</v>
+        <v>28.17049567654005</v>
       </c>
       <c r="C12">
-        <v>21.01964221977536</v>
+        <v>21.01964221977521</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.344117637021322</v>
+        <v>7.344117637021273</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>25.19185148393469</v>
+        <v>25.19185148393462</v>
       </c>
       <c r="H12">
-        <v>18.87407340315877</v>
+        <v>18.87407340315864</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.90459648328749</v>
+        <v>11.90459648328748</v>
       </c>
       <c r="L12">
-        <v>20.12977915845928</v>
+        <v>20.1297791584593</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.0898611526235</v>
+        <v>28.08986115262361</v>
       </c>
       <c r="C13">
-        <v>20.95865949476828</v>
+        <v>20.95865949476827</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.335217683046372</v>
+        <v>7.335217683046504</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403258221</v>
       </c>
       <c r="G13">
-        <v>25.13309975715793</v>
+        <v>25.13309975715794</v>
       </c>
       <c r="H13">
-        <v>18.84525559882886</v>
+        <v>18.84525559882881</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.86848540884978</v>
+        <v>11.8684854088497</v>
       </c>
       <c r="L13">
-        <v>20.07256635837399</v>
+        <v>20.07256635837398</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.82586389102839</v>
+        <v>27.82586389102832</v>
       </c>
       <c r="C14">
-        <v>20.75910104003513</v>
+        <v>20.75910104003519</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.306379528886009</v>
+        <v>7.306379528885969</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
@@ -886,7 +886,7 @@
         <v>24.94224127032884</v>
       </c>
       <c r="H14">
-        <v>18.75237941993143</v>
+        <v>18.75237941993145</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.75034327014318</v>
+        <v>11.75034327014321</v>
       </c>
       <c r="L14">
-        <v>19.88531657353074</v>
+        <v>19.88531657353072</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,22 +909,22 @@
         <v>27.66336075438704</v>
       </c>
       <c r="C15">
-        <v>20.63633793673787</v>
+        <v>20.63633793673786</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.288857562623374</v>
+        <v>7.2888575626234</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>24.82590198588115</v>
+        <v>24.82590198588111</v>
       </c>
       <c r="H15">
-        <v>18.69633190131063</v>
+        <v>18.69633190131062</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.67768584208923</v>
+        <v>11.6776858420892</v>
       </c>
       <c r="L15">
-        <v>19.77010457984067</v>
+        <v>19.77010457984065</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.71969024706286</v>
+        <v>26.71969024706297</v>
       </c>
       <c r="C16">
-        <v>19.92454909258426</v>
+        <v>19.92454909258438</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.19058254393457</v>
+        <v>7.190582543934585</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>24.16773336340341</v>
+        <v>24.16773336340349</v>
       </c>
       <c r="H16">
-        <v>18.38775373936415</v>
+        <v>18.38775373936418</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.25672173366284</v>
+        <v>11.25672173366285</v>
       </c>
       <c r="L16">
-        <v>19.10180082765696</v>
+        <v>19.10180082765701</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.12946544780247</v>
+        <v>26.1294654478025</v>
       </c>
       <c r="C17">
-        <v>19.48029733595417</v>
+        <v>19.48029733595433</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.132154610400349</v>
+        <v>7.132154610400296</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>23.77141436638056</v>
+        <v>23.77141436638059</v>
       </c>
       <c r="H17">
-        <v>18.20938365403912</v>
+        <v>18.20938365403915</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.99425088014463</v>
+        <v>10.99425088014472</v>
       </c>
       <c r="L17">
-        <v>18.68445044866291</v>
+        <v>18.684450448663</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.785741841427</v>
+        <v>25.78574184142699</v>
       </c>
       <c r="C18">
-        <v>19.2219091594348</v>
+        <v>19.22190915943471</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.099214807591355</v>
+        <v>7.0992148075912</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>23.54614263118932</v>
+        <v>23.54614263118928</v>
       </c>
       <c r="H18">
-        <v>18.11068288791986</v>
+        <v>18.11068288791984</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.84168557633372</v>
+        <v>10.84168557633374</v>
       </c>
       <c r="L18">
-        <v>18.44163103329863</v>
+        <v>18.44163103329865</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.66862669912485</v>
+        <v>25.66862669912495</v>
       </c>
       <c r="C19">
-        <v>19.13392416268998</v>
+        <v>19.13392416269003</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.08817482344237</v>
+        <v>7.08817482344235</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>36.15172494150062</v>
       </c>
       <c r="G19">
-        <v>23.47032521872508</v>
+        <v>23.47032521872506</v>
       </c>
       <c r="H19">
-        <v>18.0779213605816</v>
+        <v>18.07792136058152</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.78975066917911</v>
+        <v>10.78975066917913</v>
       </c>
       <c r="L19">
-        <v>18.35893501060495</v>
+        <v>18.358935010605</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.19273306216519</v>
+        <v>26.19273306216511</v>
       </c>
       <c r="C20">
-        <v>19.52788368551368</v>
+        <v>19.5278836855137</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.138305013056606</v>
+        <v>7.138305013056636</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>23.81332463808258</v>
+        <v>23.81332463808255</v>
       </c>
       <c r="H20">
-        <v>18.22796574471637</v>
+        <v>18.22796574471636</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>11.02235581262527</v>
       </c>
       <c r="L20">
-        <v>18.72916347511625</v>
+        <v>18.72916347511621</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,22 +1137,22 @@
         <v>27.90357189988937</v>
       </c>
       <c r="C21">
-        <v>20.81782570959614</v>
+        <v>20.81782570959615</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.314820244249306</v>
+        <v>7.31482024424929</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329769</v>
       </c>
       <c r="G21">
-        <v>24.99818243422794</v>
+        <v>24.99818243422779</v>
       </c>
       <c r="H21">
-        <v>18.77948325647776</v>
+        <v>18.77948325647765</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>11.78510503163765</v>
       </c>
       <c r="L21">
-        <v>19.94042353381994</v>
+        <v>19.94042353381998</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.98579234555257</v>
+        <v>28.98579234555255</v>
       </c>
       <c r="C22">
-        <v>21.63704521397035</v>
+        <v>21.63704521397039</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.436501788636751</v>
+        <v>7.436501788636672</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>25.79777504721018</v>
+        <v>25.79777504721025</v>
       </c>
       <c r="H22">
-        <v>19.17727475206934</v>
+        <v>19.17727475206939</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.27040910110946</v>
+        <v>12.27040910110955</v>
       </c>
       <c r="L22">
-        <v>20.70877950378372</v>
+        <v>20.70877950378378</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.41138042851317</v>
+        <v>28.41138042851309</v>
       </c>
       <c r="C23">
-        <v>21.20190467464042</v>
+        <v>21.20190467464041</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.37095990900777</v>
+        <v>7.370959909007695</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>25.36863036474178</v>
+        <v>25.36863036474172</v>
       </c>
       <c r="H23">
-        <v>18.96141670484926</v>
+        <v>18.96141670484924</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.01254655502618</v>
+        <v>12.01254655502619</v>
       </c>
       <c r="L23">
         <v>20.30074987122198</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.16414348454693</v>
+        <v>26.16414348454704</v>
       </c>
       <c r="C24">
-        <v>19.50637920280362</v>
+        <v>19.50637920280367</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.135522391768154</v>
+        <v>7.135522391768209</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>36.85121910575435</v>
       </c>
       <c r="G24">
-        <v>23.79436898954143</v>
+        <v>23.79436898954141</v>
       </c>
       <c r="H24">
-        <v>18.21955282967095</v>
+        <v>18.21955282967089</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>11.00965477702523</v>
       </c>
       <c r="L24">
-        <v>18.70895769847564</v>
+        <v>18.7089576984757</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.57710299172914</v>
+        <v>23.57710299172919</v>
       </c>
       <c r="C25">
-        <v>17.56715049567794</v>
+        <v>17.56715049567802</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.906861844063805</v>
+        <v>6.906861844063944</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>33.19272459126709</v>
       </c>
       <c r="G25">
-        <v>22.19848874954134</v>
+        <v>22.19848874954136</v>
       </c>
       <c r="H25">
-        <v>17.56661616328035</v>
+        <v>17.56661616328028</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.03959802465828</v>
+        <v>10.03959802465831</v>
       </c>
       <c r="L25">
         <v>16.88541837708843</v>

--- a/Code/Results/Cases/Case_2_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_line/loading_percent.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.52312838376148</v>
+        <v>21.52312838376143</v>
       </c>
       <c r="C2">
-        <v>16.03653554324302</v>
+        <v>16.03653554324297</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -427,10 +427,10 @@
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>21.10673897621156</v>
+        <v>21.10673897621161</v>
       </c>
       <c r="H2">
-        <v>17.19796032893378</v>
+        <v>17.1979603289339</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.378764081547647</v>
+        <v>9.378764081547629</v>
       </c>
       <c r="L2">
-        <v>15.44462652155006</v>
+        <v>15.44462652155003</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.03415628558768</v>
+        <v>20.03415628558772</v>
       </c>
       <c r="C3">
-        <v>14.93174877213951</v>
+        <v>14.93174877213963</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.669286265559701</v>
+        <v>6.669286265559713</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>20.41739155305144</v>
+        <v>20.41739155305141</v>
       </c>
       <c r="H3">
-        <v>17.01046015247357</v>
+        <v>17.01046015247355</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.92435370717674</v>
+        <v>8.924353707176728</v>
       </c>
       <c r="L3">
-        <v>14.4042394074543</v>
+        <v>14.40423940745432</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.07090876804018</v>
+        <v>19.07090876804016</v>
       </c>
       <c r="C4">
-        <v>14.21914840410698</v>
+        <v>14.21914840410695</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.619975019953992</v>
+        <v>6.619975019953796</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>20.01868290497379</v>
+        <v>20.01868290497398</v>
       </c>
       <c r="H4">
-        <v>16.92345387402641</v>
+        <v>16.92345387402661</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.642704930729433</v>
+        <v>8.642704930729384</v>
       </c>
       <c r="L4">
-        <v>13.73312411450642</v>
+        <v>13.73312411450643</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.66589062311145</v>
+        <v>18.66589062311149</v>
       </c>
       <c r="C5">
-        <v>13.92001396184286</v>
+        <v>13.92001396184287</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.601193996165502</v>
+        <v>6.601193996165564</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>19.86232251596835</v>
+        <v>19.86232251596826</v>
       </c>
       <c r="H5">
-        <v>16.89466697965792</v>
+        <v>16.89466697965777</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.527385589548617</v>
+        <v>8.527385589548647</v>
       </c>
       <c r="L5">
-        <v>13.45141483198017</v>
+        <v>13.45141483198019</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59787891408214</v>
+        <v>18.59787891408218</v>
       </c>
       <c r="C6">
-        <v>13.86981123026056</v>
+        <v>13.86981123026058</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.598153481590805</v>
+        <v>6.598153481590758</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>19.83672644904521</v>
+        <v>19.83672644904518</v>
       </c>
       <c r="H6">
-        <v>16.89027778133321</v>
+        <v>16.89027778133315</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.508207919433888</v>
+        <v>8.508207919433875</v>
       </c>
       <c r="L6">
-        <v>13.40413785048393</v>
+        <v>13.40413785048398</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.06549731931502</v>
+        <v>19.06549731931497</v>
       </c>
       <c r="C7">
-        <v>14.21514973986244</v>
+        <v>14.21514973986242</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.619716471181866</v>
+        <v>6.619716471181874</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
         <v>20.01654949442506</v>
       </c>
       <c r="H7">
-        <v>16.9230391802138</v>
+        <v>16.92303918021382</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.641151726350266</v>
+        <v>8.641151726350252</v>
       </c>
       <c r="L7">
-        <v>13.72935830618666</v>
+        <v>13.72935830618665</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>21.01980259054671</v>
       </c>
       <c r="C8">
-        <v>15.66263305811154</v>
+        <v>15.66263305811156</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.72651835616472</v>
+        <v>6.726518356164676</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.86392442135195</v>
+        <v>20.86392442135185</v>
       </c>
       <c r="H8">
-        <v>17.12723546713307</v>
+        <v>17.12723546713294</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.222694205038099</v>
+        <v>9.222694205038076</v>
       </c>
       <c r="L8">
-        <v>15.09254402835675</v>
+        <v>15.09254402835679</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.47116156994225</v>
+        <v>24.47116156994221</v>
       </c>
       <c r="C9">
-        <v>18.23586050897486</v>
+        <v>18.2358605089748</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.980678052359873</v>
+        <v>6.980678052359818</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
@@ -696,7 +696,7 @@
         <v>22.72289113695876</v>
       </c>
       <c r="H9">
-        <v>17.76816102088438</v>
+        <v>17.7681610208844</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.33833524331143</v>
+        <v>10.33833524331141</v>
       </c>
       <c r="L9">
-        <v>17.51452418215672</v>
+        <v>17.5145241821567</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.78647020743436</v>
+        <v>26.78647020743455</v>
       </c>
       <c r="C10">
-        <v>19.97485832226059</v>
+        <v>19.97485832226062</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.197341113797985</v>
+        <v>7.197341113798061</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>24.21332315372249</v>
+        <v>24.21332315372248</v>
       </c>
       <c r="H10">
-        <v>18.40864352741489</v>
+        <v>18.40864352741477</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.28645816130165</v>
+        <v>11.2864581613016</v>
       </c>
       <c r="L10">
-        <v>19.14905246319844</v>
+        <v>19.14905246319849</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.79483578162359</v>
+        <v>27.79483578162365</v>
       </c>
       <c r="C11">
-        <v>20.73565644687814</v>
+        <v>20.73565644687812</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.303020393313559</v>
+        <v>7.303020393313569</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>24.91996015153012</v>
+        <v>24.9199601515302</v>
       </c>
       <c r="H11">
-        <v>18.74161173419837</v>
+        <v>18.74161173419841</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>11.73646636398687</v>
       </c>
       <c r="L11">
-        <v>19.86331526155025</v>
+        <v>19.86331526155026</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.17049567654005</v>
+        <v>28.17049567653996</v>
       </c>
       <c r="C12">
-        <v>21.01964221977521</v>
+        <v>21.01964221977536</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.344117637021273</v>
+        <v>7.344117637021322</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>25.19185148393462</v>
+        <v>25.19185148393469</v>
       </c>
       <c r="H12">
-        <v>18.87407340315864</v>
+        <v>18.87407340315877</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.90459648328748</v>
+        <v>11.90459648328749</v>
       </c>
       <c r="L12">
-        <v>20.1297791584593</v>
+        <v>20.12977915845928</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.08986115262361</v>
+        <v>28.0898611526235</v>
       </c>
       <c r="C13">
-        <v>20.95865949476827</v>
+        <v>20.95865949476828</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.335217683046504</v>
+        <v>7.335217683046372</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>25.13309975715794</v>
+        <v>25.13309975715793</v>
       </c>
       <c r="H13">
-        <v>18.84525559882881</v>
+        <v>18.84525559882886</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.8684854088497</v>
+        <v>11.86848540884978</v>
       </c>
       <c r="L13">
-        <v>20.07256635837398</v>
+        <v>20.07256635837399</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.82586389102832</v>
+        <v>27.82586389102839</v>
       </c>
       <c r="C14">
-        <v>20.75910104003519</v>
+        <v>20.75910104003513</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.306379528885969</v>
+        <v>7.306379528886009</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
@@ -886,7 +886,7 @@
         <v>24.94224127032884</v>
       </c>
       <c r="H14">
-        <v>18.75237941993145</v>
+        <v>18.75237941993143</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.75034327014321</v>
+        <v>11.75034327014318</v>
       </c>
       <c r="L14">
-        <v>19.88531657353072</v>
+        <v>19.88531657353074</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,22 +909,22 @@
         <v>27.66336075438704</v>
       </c>
       <c r="C15">
-        <v>20.63633793673786</v>
+        <v>20.63633793673787</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.2888575626234</v>
+        <v>7.288857562623374</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>24.82590198588111</v>
+        <v>24.82590198588115</v>
       </c>
       <c r="H15">
-        <v>18.69633190131062</v>
+        <v>18.69633190131063</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.6776858420892</v>
+        <v>11.67768584208923</v>
       </c>
       <c r="L15">
-        <v>19.77010457984065</v>
+        <v>19.77010457984067</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.71969024706297</v>
+        <v>26.71969024706286</v>
       </c>
       <c r="C16">
-        <v>19.92454909258438</v>
+        <v>19.92454909258426</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.190582543934585</v>
+        <v>7.19058254393457</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>24.16773336340349</v>
+        <v>24.16773336340341</v>
       </c>
       <c r="H16">
-        <v>18.38775373936418</v>
+        <v>18.38775373936415</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.25672173366285</v>
+        <v>11.25672173366284</v>
       </c>
       <c r="L16">
-        <v>19.10180082765701</v>
+        <v>19.10180082765696</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.1294654478025</v>
+        <v>26.12946544780247</v>
       </c>
       <c r="C17">
-        <v>19.48029733595433</v>
+        <v>19.48029733595417</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.132154610400296</v>
+        <v>7.132154610400349</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>23.77141436638059</v>
+        <v>23.77141436638056</v>
       </c>
       <c r="H17">
-        <v>18.20938365403915</v>
+        <v>18.20938365403912</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.99425088014472</v>
+        <v>10.99425088014463</v>
       </c>
       <c r="L17">
-        <v>18.684450448663</v>
+        <v>18.68445044866291</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.78574184142699</v>
+        <v>25.785741841427</v>
       </c>
       <c r="C18">
-        <v>19.22190915943471</v>
+        <v>19.2219091594348</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.0992148075912</v>
+        <v>7.099214807591355</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>23.54614263118928</v>
+        <v>23.54614263118932</v>
       </c>
       <c r="H18">
-        <v>18.11068288791984</v>
+        <v>18.11068288791986</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.84168557633374</v>
+        <v>10.84168557633372</v>
       </c>
       <c r="L18">
-        <v>18.44163103329865</v>
+        <v>18.44163103329863</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.66862669912495</v>
+        <v>25.66862669912485</v>
       </c>
       <c r="C19">
-        <v>19.13392416269003</v>
+        <v>19.13392416268998</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.08817482344235</v>
+        <v>7.08817482344237</v>
       </c>
       <c r="F19">
-        <v>36.15172494150062</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>23.47032521872506</v>
+        <v>23.47032521872508</v>
       </c>
       <c r="H19">
-        <v>18.07792136058152</v>
+        <v>18.0779213605816</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.78975066917913</v>
+        <v>10.78975066917911</v>
       </c>
       <c r="L19">
-        <v>18.358935010605</v>
+        <v>18.35893501060495</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.19273306216511</v>
+        <v>26.19273306216519</v>
       </c>
       <c r="C20">
-        <v>19.5278836855137</v>
+        <v>19.52788368551368</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.138305013056636</v>
+        <v>7.138305013056606</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>23.81332463808255</v>
+        <v>23.81332463808258</v>
       </c>
       <c r="H20">
-        <v>18.22796574471636</v>
+        <v>18.22796574471637</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>11.02235581262527</v>
       </c>
       <c r="L20">
-        <v>18.72916347511621</v>
+        <v>18.72916347511625</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,22 +1137,22 @@
         <v>27.90357189988937</v>
       </c>
       <c r="C21">
-        <v>20.81782570959615</v>
+        <v>20.81782570959614</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.31482024424929</v>
+        <v>7.314820244249306</v>
       </c>
       <c r="F21">
-        <v>39.30090300329769</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>24.99818243422779</v>
+        <v>24.99818243422794</v>
       </c>
       <c r="H21">
-        <v>18.77948325647765</v>
+        <v>18.77948325647776</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>11.78510503163765</v>
       </c>
       <c r="L21">
-        <v>19.94042353381998</v>
+        <v>19.94042353381994</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.98579234555255</v>
+        <v>28.98579234555257</v>
       </c>
       <c r="C22">
-        <v>21.63704521397039</v>
+        <v>21.63704521397035</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.436501788636672</v>
+        <v>7.436501788636751</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>25.79777504721025</v>
+        <v>25.79777504721018</v>
       </c>
       <c r="H22">
-        <v>19.17727475206939</v>
+        <v>19.17727475206934</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.27040910110955</v>
+        <v>12.27040910110946</v>
       </c>
       <c r="L22">
-        <v>20.70877950378378</v>
+        <v>20.70877950378372</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.41138042851309</v>
+        <v>28.41138042851317</v>
       </c>
       <c r="C23">
-        <v>21.20190467464041</v>
+        <v>21.20190467464042</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.370959909007695</v>
+        <v>7.37095990900777</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>25.36863036474172</v>
+        <v>25.36863036474178</v>
       </c>
       <c r="H23">
-        <v>18.96141670484924</v>
+        <v>18.96141670484926</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.01254655502619</v>
+        <v>12.01254655502618</v>
       </c>
       <c r="L23">
         <v>20.30074987122198</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.16414348454704</v>
+        <v>26.16414348454693</v>
       </c>
       <c r="C24">
-        <v>19.50637920280367</v>
+        <v>19.50637920280362</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.135522391768209</v>
+        <v>7.135522391768154</v>
       </c>
       <c r="F24">
-        <v>36.85121910575435</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>23.79436898954141</v>
+        <v>23.79436898954143</v>
       </c>
       <c r="H24">
-        <v>18.21955282967089</v>
+        <v>18.21955282967095</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>11.00965477702523</v>
       </c>
       <c r="L24">
-        <v>18.7089576984757</v>
+        <v>18.70895769847564</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.57710299172919</v>
+        <v>23.57710299172914</v>
       </c>
       <c r="C25">
-        <v>17.56715049567802</v>
+        <v>17.56715049567794</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.906861844063944</v>
+        <v>6.906861844063805</v>
       </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>22.19848874954136</v>
+        <v>22.19848874954134</v>
       </c>
       <c r="H25">
-        <v>17.56661616328028</v>
+        <v>17.56661616328035</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.03959802465831</v>
+        <v>10.03959802465828</v>
       </c>
       <c r="L25">
         <v>16.88541837708843</v>

--- a/Code/Results/Cases/Case_2_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.52312838376143</v>
+        <v>21.52288268424851</v>
       </c>
       <c r="C2">
-        <v>16.03653554324297</v>
+        <v>16.03144450502167</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.75838527582455</v>
+        <v>6.75915820915866</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>21.10673897621161</v>
+        <v>19.68002567545154</v>
       </c>
       <c r="H2">
-        <v>17.1979603289339</v>
+        <v>21.13120134295368</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>17.17848436871891</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.378764081547629</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15.44462652155003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>9.377942417505768</v>
+      </c>
+      <c r="M2">
+        <v>15.44400289144632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.03415628558772</v>
+        <v>20.03410805683612</v>
       </c>
       <c r="C3">
-        <v>14.93174877213963</v>
+        <v>14.92721253216488</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.669286265559713</v>
+        <v>6.670124413929463</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>20.41739155305141</v>
+        <v>18.71540689136572</v>
       </c>
       <c r="H3">
-        <v>17.01046015247355</v>
+        <v>20.44162791984627</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.99259084763459</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.924353707176728</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.40423940745432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>8.92359874846678</v>
+      </c>
+      <c r="M3">
+        <v>14.40377595287086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.07090876804016</v>
+        <v>19.07097778028287</v>
       </c>
       <c r="C4">
-        <v>14.21914840410695</v>
+        <v>14.21496342116656</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.619975019953796</v>
+        <v>6.620860574535276</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>20.01868290497398</v>
+        <v>18.13559679547884</v>
       </c>
       <c r="H4">
-        <v>16.92345387402661</v>
+        <v>20.04287304596298</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.90658429508528</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.642704930729384</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>13.73312411450643</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.641989101507013</v>
+      </c>
+      <c r="M4">
+        <v>13.73275856923055</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.66589062311149</v>
+        <v>18.66600664651114</v>
       </c>
       <c r="C5">
-        <v>13.92001396184287</v>
+        <v>13.91597515572359</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.601193996165564</v>
+        <v>6.602100663660615</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>19.86232251596826</v>
+        <v>17.90265176240068</v>
       </c>
       <c r="H5">
-        <v>16.89466697965777</v>
+        <v>19.88651653593644</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.87820721437494</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.527385589548647</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>13.45141483198019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>8.526685314196682</v>
+      </c>
+      <c r="M5">
+        <v>13.45108927027971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59787891408218</v>
+        <v>18.59800270424513</v>
       </c>
       <c r="C6">
-        <v>13.86981123026058</v>
+        <v>13.86579689099981</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.598153481590758</v>
+        <v>6.59906376140931</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>19.83672644904518</v>
+        <v>17.86417905204809</v>
       </c>
       <c r="H6">
-        <v>16.89027778133315</v>
+        <v>19.86092246505302</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.87388618607046</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.508207919433875</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>13.40413785048398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>8.507510204947236</v>
+      </c>
+      <c r="M6">
+        <v>13.40381893878205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.06549731931497</v>
+        <v>19.06556696835607</v>
       </c>
       <c r="C7">
-        <v>14.21514973986242</v>
+        <v>14.21096671552682</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.619716471181874</v>
+        <v>6.6206023033157</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>20.01654949442506</v>
+        <v>18.13244144070172</v>
       </c>
       <c r="H7">
-        <v>16.92303918021382</v>
+        <v>20.04073959662748</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.90617511952753</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.641151726350252</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>13.72935830618665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.640436108395694</v>
+      </c>
+      <c r="M7">
+        <v>13.72899329954518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.01980259054671</v>
+        <v>21.0196259610356</v>
       </c>
       <c r="C8">
-        <v>15.66263305811156</v>
+        <v>15.65773133427395</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.726518356164676</v>
+        <v>6.727312215811312</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.86392442135185</v>
+        <v>19.34494321736745</v>
       </c>
       <c r="H8">
-        <v>17.12723546713294</v>
+        <v>20.88828938599093</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>17.10831017032183</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.222694205038076</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>15.09254402835679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>9.221895964268004</v>
+      </c>
+      <c r="M8">
+        <v>15.09197583713065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.47116156994221</v>
+        <v>24.47045832108998</v>
       </c>
       <c r="C9">
-        <v>18.2358605089748</v>
+        <v>18.22961680984798</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.980678052359818</v>
+        <v>6.981351980301555</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>22.72289113695876</v>
+        <v>21.81535347978656</v>
       </c>
       <c r="H9">
-        <v>17.7681610208844</v>
+        <v>22.74834778439459</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>17.74534080467791</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.33833524331141</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>17.5145241821567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>10.33735683400056</v>
+      </c>
+      <c r="M9">
+        <v>17.51354484791016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.78647020743455</v>
+        <v>26.78533477733759</v>
       </c>
       <c r="C10">
-        <v>19.97485832226062</v>
+        <v>19.96764511011499</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.197341113798061</v>
+        <v>7.197965535321574</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>24.21332315372248</v>
+        <v>23.68302455081475</v>
       </c>
       <c r="H10">
-        <v>18.40864352741477</v>
+        <v>24.24004554741896</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>18.38310619304971</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.2864581613016</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>19.14905246319849</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>11.28530735926751</v>
+      </c>
+      <c r="M10">
+        <v>19.14774929049967</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.79483578162365</v>
+        <v>27.7934889425809</v>
       </c>
       <c r="C11">
-        <v>20.73565644687812</v>
+        <v>20.72799960830903</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.303020393313569</v>
+        <v>7.303630741907434</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>24.9199601515302</v>
+        <v>24.54478645339956</v>
       </c>
       <c r="H11">
-        <v>18.74161173419841</v>
+        <v>24.94735761797252</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>18.71487922243398</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.73646636398687</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>19.86331526155026</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>11.73523422993992</v>
+      </c>
+      <c r="M11">
+        <v>19.8618564017923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.17049567653996</v>
+        <v>28.16906615235134</v>
       </c>
       <c r="C12">
-        <v>21.01964221977536</v>
+        <v>21.01181642325987</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.344117637021322</v>
+        <v>7.344723852178758</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>25.19185148393469</v>
+        <v>24.87302633997734</v>
       </c>
       <c r="H12">
-        <v>18.87407340315877</v>
+        <v>25.21951858971019</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>18.84689470923204</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.90459648328749</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>20.12977915845928</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>11.90333262676687</v>
+      </c>
+      <c r="M12">
+        <v>20.12825977791416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.0898611526235</v>
+        <v>28.08844956200055</v>
       </c>
       <c r="C13">
-        <v>20.95865949476828</v>
+        <v>20.95087013977345</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.335217683046372</v>
+        <v>7.335824735759173</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>25.13309975715793</v>
+        <v>24.80224548122175</v>
       </c>
       <c r="H13">
-        <v>18.84525559882886</v>
+        <v>25.16070817365112</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>18.81817270772214</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.86848540884978</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>20.07256635837399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>11.86722842908861</v>
+      </c>
+      <c r="M13">
+        <v>20.07106008811076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.82586389102839</v>
+        <v>27.82451030529754</v>
       </c>
       <c r="C14">
-        <v>20.75910104003513</v>
+        <v>20.75143032428198</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.306379528886009</v>
+        <v>7.306989513638744</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>24.94224127032884</v>
+        <v>24.57175141051327</v>
       </c>
       <c r="H14">
-        <v>18.75237941993143</v>
+        <v>24.96966064134923</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>18.72561007001749</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.75034327014318</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>19.88531657353074</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>11.74910854609121</v>
+      </c>
+      <c r="M14">
+        <v>19.88385276835635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.66336075438704</v>
+        <v>27.66204233961131</v>
       </c>
       <c r="C15">
-        <v>20.63633793673787</v>
+        <v>20.62873974596395</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.288857562623374</v>
+        <v>7.289469498132983</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>24.82590198588115</v>
+        <v>24.43082223168449</v>
       </c>
       <c r="H15">
-        <v>18.69633190131063</v>
+        <v>24.85320737534857</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>18.66975544989743</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.67768584208923</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>19.77010457984067</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>11.67646462328271</v>
+      </c>
+      <c r="M15">
+        <v>19.7686665701151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.71969024706286</v>
+        <v>26.71856829426265</v>
       </c>
       <c r="C16">
-        <v>19.92454909258426</v>
+        <v>19.91736477155312</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.19058254393457</v>
+        <v>7.191208053971248</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>24.16773336340341</v>
+        <v>23.62696259550831</v>
       </c>
       <c r="H16">
-        <v>18.38775373936415</v>
+        <v>24.19441361589304</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>18.36229538591749</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.25672173366284</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>19.10180082765696</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>11.25557612953726</v>
+      </c>
+      <c r="M16">
+        <v>19.10050763144156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.12946544780247</v>
+        <v>26.1284598957528</v>
       </c>
       <c r="C17">
-        <v>19.48029733595417</v>
+        <v>19.47336585113471</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.132154610400349</v>
+        <v>7.132790604296893</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>23.77141436638056</v>
+        <v>23.13701862880498</v>
       </c>
       <c r="H17">
-        <v>18.20938365403912</v>
+        <v>23.79773637885266</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>18.1846221371476</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.99425088014463</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>18.68445044866291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>10.99315024692518</v>
+      </c>
+      <c r="M17">
+        <v>18.68324370743664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.785741841427</v>
+        <v>25.78480188066839</v>
       </c>
       <c r="C18">
-        <v>19.2219091594348</v>
+        <v>19.21512289556173</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.099214807591355</v>
+        <v>7.099857628977928</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>23.54614263118932</v>
+        <v>22.85634411661735</v>
       </c>
       <c r="H18">
-        <v>18.11068288791986</v>
+        <v>23.5722679604037</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>18.0863260001886</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.84168557633372</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>18.44163103329863</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>10.84061035165463</v>
+      </c>
+      <c r="M18">
+        <v>18.44047325549107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.66862669912485</v>
+        <v>25.66770872686338</v>
       </c>
       <c r="C19">
-        <v>19.13392416268998</v>
+        <v>19.12718704985402</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.08817482344237</v>
+        <v>7.088820093721436</v>
       </c>
       <c r="F19">
         <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>23.47032521872508</v>
+        <v>22.76150290657984</v>
       </c>
       <c r="H19">
-        <v>18.0779213605816</v>
+        <v>23.49638557008727</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>18.05370211037795</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.78975066917911</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>18.35893501060495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>10.7886839743769</v>
+      </c>
+      <c r="M19">
+        <v>18.35779368996939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.19273306216519</v>
+        <v>26.19171526309551</v>
       </c>
       <c r="C20">
-        <v>19.52788368551368</v>
+        <v>19.52092531096174</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.138305013056606</v>
+        <v>7.138939808470036</v>
       </c>
       <c r="F20">
         <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>23.81332463808258</v>
+        <v>23.18905634796358</v>
       </c>
       <c r="H20">
-        <v>18.22796574471637</v>
+        <v>23.83968381808369</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>18.20312964762012</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.02235581262527</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>18.72916347511625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>11.02125044087591</v>
+      </c>
+      <c r="M20">
+        <v>18.72794761202981</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.90357189988937</v>
+        <v>27.90220135249069</v>
       </c>
       <c r="C21">
-        <v>20.81782570959614</v>
+        <v>20.81012017802645</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.314820244249306</v>
+        <v>7.315429335594454</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>24.99818243422794</v>
+        <v>24.63939951947354</v>
       </c>
       <c r="H21">
-        <v>18.77948325647776</v>
+        <v>25.0256569549923</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>18.75262163515482</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.78510503163765</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>19.94042353381994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>11.78386379743598</v>
+      </c>
+      <c r="M21">
+        <v>19.93894730129401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.98579234555257</v>
+        <v>28.98417563255242</v>
       </c>
       <c r="C22">
-        <v>21.63704521397035</v>
+        <v>21.6288453947471</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.436501788636751</v>
+        <v>7.437101026164279</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>25.79777504721018</v>
+        <v>25.61401953731151</v>
       </c>
       <c r="H22">
-        <v>19.17727475206934</v>
+        <v>25.82605995294435</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>19.14912671513111</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.27040910110946</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>20.70877950378372</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>12.26907356297123</v>
+      </c>
+      <c r="M22">
+        <v>20.70712376477107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.41138042851317</v>
+        <v>28.40989671745823</v>
       </c>
       <c r="C23">
-        <v>21.20190467464042</v>
+        <v>21.19396943388769</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.37095990900777</v>
+        <v>7.371563781982003</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>25.36863036474178</v>
+        <v>25.08552615849347</v>
       </c>
       <c r="H23">
-        <v>18.96141670484926</v>
+        <v>25.39647541075516</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>18.93395172799961</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.01254655502618</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>20.30074987122198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>12.01126193098195</v>
+      </c>
+      <c r="M23">
+        <v>20.29919092912072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.16414348454693</v>
+        <v>26.16313122645816</v>
       </c>
       <c r="C24">
-        <v>19.50637920280362</v>
+        <v>19.4994329854855</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.135522391768154</v>
+        <v>7.136157726522314</v>
       </c>
       <c r="F24">
         <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>23.79436898954143</v>
+        <v>23.1655269888577</v>
       </c>
       <c r="H24">
-        <v>18.21955282967095</v>
+        <v>23.82071133720165</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>18.1947504378426</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.00965477702523</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>18.70895769847564</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>11.0085515489391</v>
+      </c>
+      <c r="M24">
+        <v>18.70774596166285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.57710299172914</v>
+        <v>23.57654866415864</v>
       </c>
       <c r="C25">
-        <v>17.56715049567794</v>
+        <v>17.56126505049723</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.906861844063805</v>
+        <v>6.907561512860501</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>22.19848874954134</v>
+        <v>21.13775959073973</v>
       </c>
       <c r="H25">
-        <v>17.56661616328035</v>
+        <v>22.22356855541112</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>17.54482798197884</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.03959802465828</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>16.88541837708843</v>
+        <v>10.03867086778458</v>
+      </c>
+      <c r="M25">
+        <v>16.8845529859838</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.52288268424851</v>
+        <v>21.13602011754215</v>
       </c>
       <c r="C2">
-        <v>16.03144450502167</v>
+        <v>14.49428297413268</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.75915820915866</v>
+        <v>18.16485747077975</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>40.93056285958129</v>
       </c>
       <c r="G2">
-        <v>19.68002567545154</v>
+        <v>2.069909957622804</v>
       </c>
       <c r="H2">
-        <v>21.13120134295368</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>17.17848436871891</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.165065334538266</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.48049694120345</v>
       </c>
       <c r="L2">
-        <v>9.377942417505768</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>15.44400289144632</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>11.63607400356157</v>
+      </c>
+      <c r="O2">
+        <v>21.15912501015681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.03410805683612</v>
+        <v>19.63553470503315</v>
       </c>
       <c r="C3">
-        <v>14.92721253216488</v>
+        <v>13.47597565664367</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.670124413929463</v>
+        <v>17.10767906053605</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>38.89107218474281</v>
       </c>
       <c r="G3">
-        <v>18.71540689136572</v>
+        <v>2.079357396013738</v>
       </c>
       <c r="H3">
-        <v>20.44162791984627</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>16.99259084763459</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.183684208774566</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.18497120740715</v>
       </c>
       <c r="L3">
-        <v>8.92359874846678</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.40377595287086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>11.93263274406409</v>
+      </c>
+      <c r="O3">
+        <v>20.53027091866887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.07097778028287</v>
+        <v>18.66632999472725</v>
       </c>
       <c r="C4">
-        <v>14.21496342116656</v>
+        <v>12.81831475822232</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.620860574535276</v>
+        <v>16.43683807807495</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>37.6306458060221</v>
       </c>
       <c r="G4">
-        <v>18.13559679547884</v>
+        <v>2.085285783402878</v>
       </c>
       <c r="H4">
-        <v>20.04287304596298</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>16.90658429508528</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.19906087657007</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.34786572672847</v>
       </c>
       <c r="L4">
-        <v>8.641989101507013</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>13.73275856923055</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12.11706034654316</v>
+      </c>
+      <c r="O4">
+        <v>20.16491579532045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.66600664651114</v>
+        <v>18.25917408715863</v>
       </c>
       <c r="C5">
-        <v>13.91597515572359</v>
+        <v>12.54203893613546</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.602100663660615</v>
+        <v>16.15819624481773</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>37.11547213694455</v>
       </c>
       <c r="G5">
-        <v>17.90265176240068</v>
+        <v>2.087735927961288</v>
       </c>
       <c r="H5">
-        <v>19.88651653593644</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>16.87820721437494</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.206267153242509</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.99611793121777</v>
       </c>
       <c r="L5">
-        <v>8.526685314196682</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13.45108927027971</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12.19287057405852</v>
+      </c>
+      <c r="O5">
+        <v>20.02120574795877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59800270424513</v>
+        <v>18.19082528119897</v>
       </c>
       <c r="C6">
-        <v>13.86579689099981</v>
+        <v>12.49566039465378</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.59906376140931</v>
+        <v>16.11161670170972</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>37.02985220251401</v>
       </c>
       <c r="G6">
-        <v>17.86417905204809</v>
+        <v>2.088144903790713</v>
       </c>
       <c r="H6">
-        <v>19.86092246505302</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>16.87388618607046</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.207519082379367</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.93706485085221</v>
       </c>
       <c r="L6">
-        <v>8.507510204947236</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13.40381893878205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>12.20550018215595</v>
+      </c>
+      <c r="O6">
+        <v>19.99765383248894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.06556696835607</v>
+        <v>18.66088852563157</v>
       </c>
       <c r="C7">
-        <v>14.21096671552682</v>
+        <v>12.8146224624956</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.6206023033157</v>
+        <v>16.43310124568602</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>37.62370346398078</v>
       </c>
       <c r="G7">
-        <v>18.13244144070172</v>
+        <v>2.085318685342782</v>
       </c>
       <c r="H7">
-        <v>20.04073959662748</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>16.90617511952753</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.199154322262405</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.34316512512882</v>
       </c>
       <c r="L7">
-        <v>8.640436108395694</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>13.72899329954518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12.11808001560162</v>
+      </c>
+      <c r="O7">
+        <v>20.16295678499283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.0196259610356</v>
+        <v>20.62849879452154</v>
       </c>
       <c r="C8">
-        <v>15.65773133427395</v>
+        <v>14.14982250823345</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.727312215811312</v>
+        <v>17.80495036198988</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>40.22931500699004</v>
       </c>
       <c r="G8">
-        <v>19.34494321736745</v>
+        <v>2.07314231698267</v>
       </c>
       <c r="H8">
-        <v>20.88828938599093</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>17.10831017032183</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.170634248957984</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.04235185747205</v>
       </c>
       <c r="L8">
-        <v>9.221895964268004</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>15.09197583713065</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>11.73788334063558</v>
+      </c>
+      <c r="O8">
+        <v>20.9379607073944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.47045832108998</v>
+        <v>24.11448669081489</v>
       </c>
       <c r="C9">
-        <v>18.22961680984798</v>
+        <v>16.5168863714703</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.981351980301555</v>
+        <v>20.31725908826913</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>45.25780323648488</v>
       </c>
       <c r="G9">
-        <v>21.81535347978656</v>
+        <v>2.050168606748048</v>
       </c>
       <c r="H9">
-        <v>22.74834778439459</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>17.74534080467791</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.148510416999649</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.05115008373482</v>
       </c>
       <c r="L9">
-        <v>10.33735683400056</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>17.51354484791016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>11.00761321915343</v>
+      </c>
+      <c r="O9">
+        <v>22.62455135820755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.78533477733759</v>
+        <v>26.4602382279243</v>
       </c>
       <c r="C10">
-        <v>19.96764511011499</v>
+        <v>18.11181454149103</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.197965535321574</v>
+        <v>22.05133016491721</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>48.89050749473159</v>
       </c>
       <c r="G10">
-        <v>23.68302455081475</v>
+        <v>2.033672800920671</v>
       </c>
       <c r="H10">
-        <v>24.24004554741896</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>18.38310619304971</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.156622724255514</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>23.07540651188926</v>
       </c>
       <c r="L10">
-        <v>11.28530735926751</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>19.14774929049967</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>10.47539334059189</v>
+      </c>
+      <c r="O10">
+        <v>23.96910410527175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.7934889425809</v>
+        <v>27.4835342469017</v>
       </c>
       <c r="C11">
-        <v>20.72799960830903</v>
+        <v>18.80832587021777</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.303630741907434</v>
+        <v>22.8163104659526</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>50.52986871055077</v>
       </c>
       <c r="G11">
-        <v>24.54478645339956</v>
+        <v>2.026208735773419</v>
       </c>
       <c r="H11">
-        <v>24.94735761797252</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>18.71487922243398</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.166521270288291</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.95849457021082</v>
       </c>
       <c r="L11">
-        <v>11.73523422993992</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>19.8618564017923</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>10.23295432457113</v>
+      </c>
+      <c r="O11">
+        <v>24.60493729951904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.16906615235134</v>
+        <v>27.86500464036535</v>
       </c>
       <c r="C12">
-        <v>21.01181642325987</v>
+        <v>19.06811096186342</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.344723852178758</v>
+        <v>23.10265094190863</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>51.14895031459857</v>
       </c>
       <c r="G12">
-        <v>24.87302633997734</v>
+        <v>2.023383952933675</v>
       </c>
       <c r="H12">
-        <v>25.21951858971019</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>18.84689470923204</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.171246686400457</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>24.28771373856424</v>
       </c>
       <c r="L12">
-        <v>11.90333262676687</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>20.12825977791416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>10.14098465780743</v>
+      </c>
+      <c r="O12">
+        <v>24.84934218145046</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.08844956200055</v>
+        <v>27.78311172807111</v>
       </c>
       <c r="C13">
-        <v>20.95087013977345</v>
+        <v>19.01233456887178</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.335824735759173</v>
+        <v>23.04112903950001</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>51.01569151244549</v>
       </c>
       <c r="G13">
-        <v>24.80224548122175</v>
+        <v>2.023992315043637</v>
       </c>
       <c r="H13">
-        <v>25.16070817365112</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>18.81817270772214</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.170184104566106</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>24.21703705477072</v>
       </c>
       <c r="L13">
-        <v>11.86722842908861</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>20.07106008811076</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>10.16080121323937</v>
+      </c>
+      <c r="O13">
+        <v>24.79654088716624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.82451030529754</v>
+        <v>27.51503724058604</v>
       </c>
       <c r="C14">
-        <v>20.75143032428198</v>
+        <v>18.82977682040503</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.306989513638744</v>
+        <v>22.83993414016165</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>50.58083359627958</v>
       </c>
       <c r="G14">
-        <v>24.57175141051327</v>
+        <v>2.025976330222192</v>
       </c>
       <c r="H14">
-        <v>24.96966064134923</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>18.72561007001749</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.166889941475987</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>23.98568210452055</v>
       </c>
       <c r="L14">
-        <v>11.74910854609121</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>19.88385276835635</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>10.22539190561944</v>
+      </c>
+      <c r="O14">
+        <v>24.62497086947188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.66204233961131</v>
+        <v>27.35005713423944</v>
       </c>
       <c r="C15">
-        <v>20.62873974596395</v>
+        <v>18.71744460337694</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.289469498132983</v>
+        <v>22.71626485482169</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>50.31425599578297</v>
       </c>
       <c r="G15">
-        <v>24.43082223168449</v>
+        <v>2.027191688810319</v>
       </c>
       <c r="H15">
-        <v>24.85320737534857</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>18.66975544989743</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.165002044089919</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>23.84330264216585</v>
       </c>
       <c r="L15">
-        <v>11.67646462328271</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>19.7686665701151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>10.26493065350474</v>
+      </c>
+      <c r="O15">
+        <v>24.52035716341788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.71856829426265</v>
+        <v>26.39250437074611</v>
       </c>
       <c r="C16">
-        <v>19.91736477155312</v>
+        <v>18.06572880832542</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.191208053971248</v>
+        <v>22.00086339596688</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>48.78311886550109</v>
       </c>
       <c r="G16">
-        <v>23.62696259550831</v>
+        <v>2.034161064478922</v>
       </c>
       <c r="H16">
-        <v>24.19441361589304</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>18.36229538591749</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.156107794629493</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>23.01695499183027</v>
       </c>
       <c r="L16">
-        <v>11.25557612953726</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>19.10050763144156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>10.49122104322679</v>
+      </c>
+      <c r="O16">
+        <v>23.92804938535246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.1284598957528</v>
+        <v>25.79404082664215</v>
       </c>
       <c r="C17">
-        <v>19.47336585113471</v>
+        <v>17.65862644344189</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.132790604296893</v>
+        <v>21.55592587054112</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>47.84052836055304</v>
       </c>
       <c r="G17">
-        <v>23.13701862880498</v>
+        <v>2.038444059321694</v>
       </c>
       <c r="H17">
-        <v>23.79773637885266</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>18.1846221371476</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.152299215228553</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>22.5005115019451</v>
       </c>
       <c r="L17">
-        <v>10.99315024692518</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>18.68324370743664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>10.62987983656973</v>
+      </c>
+      <c r="O17">
+        <v>23.57097500339581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.78480188066839</v>
+        <v>25.44568020189207</v>
       </c>
       <c r="C18">
-        <v>19.21512289556173</v>
+        <v>17.42172595490723</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.099857628977928</v>
+        <v>21.29775563038671</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>47.29711534608228</v>
       </c>
       <c r="G18">
-        <v>22.85634411661735</v>
+        <v>2.040911556062613</v>
       </c>
       <c r="H18">
-        <v>23.5722679604037</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>18.0863260001886</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.150687499356767</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>22.19989713612734</v>
       </c>
       <c r="L18">
-        <v>10.84061035165463</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>18.44047325549107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>10.70960932452153</v>
+      </c>
+      <c r="O18">
+        <v>23.36786047046358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.66770872686338</v>
+        <v>25.32701249145348</v>
       </c>
       <c r="C19">
-        <v>19.12718704985402</v>
+        <v>17.34103799507947</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.088820093721436</v>
+        <v>21.20995456146099</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>47.11290533579494</v>
       </c>
       <c r="G19">
-        <v>22.76150290657984</v>
+        <v>2.041747815775234</v>
       </c>
       <c r="H19">
-        <v>23.49638557008727</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>18.05370211037795</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.150238773758086</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.09749420864149</v>
       </c>
       <c r="L19">
-        <v>10.7886839743769</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>18.35779368996939</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>10.73660367582514</v>
+      </c>
+      <c r="O19">
+        <v>23.29947464312666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.19171526309551</v>
+        <v>25.8581749397327</v>
       </c>
       <c r="C20">
-        <v>19.52092531096174</v>
+        <v>17.70224596566801</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.138939808470036</v>
+        <v>21.60352300794914</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>47.94099823523879</v>
       </c>
       <c r="G20">
-        <v>23.18905634796358</v>
+        <v>2.037987737711449</v>
       </c>
       <c r="H20">
-        <v>23.83968381808369</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>18.20312964762012</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.152644146204169</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>22.55585557439722</v>
       </c>
       <c r="L20">
-        <v>11.02125044087591</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>18.72794761202981</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>10.6151225916033</v>
+      </c>
+      <c r="O20">
+        <v>23.60875080980799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.90220135249069</v>
+        <v>27.5939385649622</v>
       </c>
       <c r="C21">
-        <v>20.81012017802645</v>
+        <v>18.88350440641672</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.315429335594454</v>
+        <v>22.89911967553364</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>50.70860608732721</v>
       </c>
       <c r="G21">
-        <v>24.63939951947354</v>
+        <v>2.025393565665811</v>
       </c>
       <c r="H21">
-        <v>25.0256569549923</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>18.75262163515482</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.167830290357367</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>24.05377537556781</v>
       </c>
       <c r="L21">
-        <v>11.78386379743598</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>19.93894730129401</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>10.20642547087251</v>
+      </c>
+      <c r="O21">
+        <v>24.67526521000466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.98417563255242</v>
+        <v>28.69336294659848</v>
       </c>
       <c r="C22">
-        <v>21.6288453947471</v>
+        <v>19.63250618926489</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.437101026164279</v>
+        <v>23.72646988145442</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>52.5076281519824</v>
       </c>
       <c r="G22">
-        <v>25.61401953731151</v>
+        <v>2.017170167397646</v>
       </c>
       <c r="H22">
-        <v>25.82605995294435</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>19.14912671513111</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.183495102838558</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25.00265057643228</v>
       </c>
       <c r="L22">
-        <v>12.26907356297123</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>20.70712376477107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>9.938303462360496</v>
+      </c>
+      <c r="O22">
+        <v>25.39355344880864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.40989671745823</v>
+        <v>28.10968476815294</v>
       </c>
       <c r="C23">
-        <v>21.19396943388769</v>
+        <v>19.23478170444809</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.371563781982003</v>
+        <v>23.2866299816865</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>51.54825070259572</v>
       </c>
       <c r="G23">
-        <v>25.08552615849347</v>
+        <v>2.021559929608533</v>
       </c>
       <c r="H23">
-        <v>25.39647541075516</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>18.93395172799961</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.174579414435284</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>24.49888514743173</v>
       </c>
       <c r="L23">
-        <v>12.01126193098195</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>20.29919092912072</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>10.08153973158041</v>
+      </c>
+      <c r="O23">
+        <v>25.00818069526619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.16313122645816</v>
+        <v>25.82919330806015</v>
       </c>
       <c r="C24">
-        <v>19.4994329854855</v>
+        <v>17.6825344779858</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.136157726522314</v>
+        <v>21.58201172946698</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>47.89558050535005</v>
       </c>
       <c r="G24">
-        <v>23.1655269888577</v>
+        <v>2.038194024384156</v>
       </c>
       <c r="H24">
-        <v>23.82071133720165</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>18.1947504378426</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.15248640920352</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>22.53084607471433</v>
       </c>
       <c r="L24">
-        <v>11.0085515489391</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>18.70774596166285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>10.62179429390334</v>
+      </c>
+      <c r="O24">
+        <v>23.59166561218099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.57654866415864</v>
+        <v>23.21017508895341</v>
       </c>
       <c r="C25">
-        <v>17.56126505049723</v>
+        <v>15.902548538529</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.907561512860501</v>
+        <v>19.65719244600555</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>43.90790305075077</v>
       </c>
       <c r="G25">
-        <v>21.13775959073973</v>
+        <v>2.056303104966426</v>
       </c>
       <c r="H25">
-        <v>22.22356855541112</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>17.54482798197884</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.150506815405871</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.27074264040774</v>
       </c>
       <c r="L25">
-        <v>10.03867086778458</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>16.8845529859838</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>11.20402222009376</v>
+      </c>
+      <c r="O25">
+        <v>22.15009817523353</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.13602011754215</v>
+        <v>14.07754458593966</v>
       </c>
       <c r="C2">
-        <v>14.49428297413268</v>
+        <v>8.200868099474826</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>18.16485747077975</v>
+        <v>25.85573287962746</v>
       </c>
       <c r="F2">
-        <v>40.93056285958129</v>
+        <v>33.35270655030362</v>
       </c>
       <c r="G2">
-        <v>2.069909957622804</v>
+        <v>15.65134493787864</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.7133541652809</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.165065334538266</v>
+        <v>4.364083271618236</v>
       </c>
       <c r="K2">
-        <v>18.48049694120345</v>
+        <v>12.62465956155765</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.63607400356157</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>21.15912501015681</v>
+        <v>11.66332433738218</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.63553470503315</v>
+        <v>13.20007975903266</v>
       </c>
       <c r="C3">
-        <v>13.47597565664367</v>
+        <v>7.885244987995686</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.10767906053605</v>
+        <v>24.29805086461635</v>
       </c>
       <c r="F3">
-        <v>38.89107218474281</v>
+        <v>31.91424054229454</v>
       </c>
       <c r="G3">
-        <v>2.079357396013738</v>
+        <v>15.95302154106872</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.87168008422576</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.183684208774566</v>
+        <v>4.426738357534346</v>
       </c>
       <c r="K3">
-        <v>17.18497120740715</v>
+        <v>11.9565748277183</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.93263274406409</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>20.53027091866887</v>
+        <v>11.93104221604094</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.66632999472725</v>
+        <v>12.63066198740513</v>
       </c>
       <c r="C4">
-        <v>12.81831475822232</v>
+        <v>7.685413497952282</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.43683807807495</v>
+        <v>23.30385368329732</v>
       </c>
       <c r="F4">
-        <v>37.6306458060221</v>
+        <v>31.02953090980544</v>
       </c>
       <c r="G4">
-        <v>2.085285783402878</v>
+        <v>16.1693940977763</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.97344056728533</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.19906087657007</v>
+        <v>4.466597353271803</v>
       </c>
       <c r="K4">
-        <v>16.34786572672847</v>
+        <v>11.52650717720395</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.11706034654316</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>20.16491579532045</v>
+        <v>12.10681230856119</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.25917408715863</v>
+        <v>12.3909261102833</v>
       </c>
       <c r="C5">
-        <v>12.54203893613546</v>
+        <v>7.602552315998727</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.15819624481773</v>
+        <v>22.88949070917082</v>
       </c>
       <c r="F5">
-        <v>37.11547213694455</v>
+        <v>30.66912823838674</v>
       </c>
       <c r="G5">
-        <v>2.087735927961288</v>
+        <v>16.26481762074162</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.016027886640636</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.206267153242509</v>
+        <v>4.483191380413965</v>
       </c>
       <c r="K5">
-        <v>15.99611793121777</v>
+        <v>11.34635255004484</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.19287057405852</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>20.02120574795877</v>
+        <v>12.18116883544618</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.19082528119897</v>
+        <v>12.35065414865712</v>
       </c>
       <c r="C6">
-        <v>12.49566039465378</v>
+        <v>7.588709872944182</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.11161670170972</v>
+        <v>22.8201389598712</v>
       </c>
       <c r="F6">
-        <v>37.02985220251401</v>
+        <v>30.609306741058</v>
       </c>
       <c r="G6">
-        <v>2.088144903790713</v>
+        <v>16.28108429418195</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8.023166419980722</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.207519082379367</v>
+        <v>4.485968076987946</v>
       </c>
       <c r="K6">
-        <v>15.93706485085221</v>
+        <v>11.31614539536819</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.20550018215595</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>19.99765383248894</v>
+        <v>12.19367682618227</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.66088852563157</v>
+        <v>12.62745994849094</v>
       </c>
       <c r="C7">
-        <v>12.8146224624956</v>
+        <v>7.684301658616804</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.43310124568602</v>
+        <v>23.29830234123736</v>
       </c>
       <c r="F7">
-        <v>37.62370346398078</v>
+        <v>31.02466919406063</v>
       </c>
       <c r="G7">
-        <v>2.085318685342782</v>
+        <v>16.1706523962469</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.974010413347258</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.199154322262405</v>
+        <v>4.466819721498718</v>
       </c>
       <c r="K7">
-        <v>16.34316512512882</v>
+        <v>11.52409724003489</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.11808001560162</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>20.16295678499283</v>
+        <v>12.10780422557228</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.62849879452154</v>
+        <v>13.78136064808511</v>
       </c>
       <c r="C8">
-        <v>14.14982250823345</v>
+        <v>8.093344824463728</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>17.80495036198988</v>
+        <v>25.32662744728549</v>
       </c>
       <c r="F8">
-        <v>40.22931500699004</v>
+        <v>32.85731202006232</v>
       </c>
       <c r="G8">
-        <v>2.07314231698267</v>
+        <v>15.74853777739659</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.766985221693187</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.170634248957984</v>
+        <v>4.385399723832718</v>
       </c>
       <c r="K8">
-        <v>18.04235185747205</v>
+        <v>12.39847662468316</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.73788334063558</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>20.9379607073944</v>
+        <v>11.75318301193439</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.11448669081489</v>
+        <v>15.80097864042604</v>
       </c>
       <c r="C9">
-        <v>16.5168863714703</v>
+        <v>8.844191658058316</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>20.31725908826913</v>
+        <v>28.99600559892276</v>
       </c>
       <c r="F9">
-        <v>45.25780323648488</v>
+        <v>36.42067744299192</v>
       </c>
       <c r="G9">
-        <v>2.050168606748048</v>
+        <v>15.19582637113899</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.398396011761381</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.148510416999649</v>
+        <v>4.236669392019709</v>
       </c>
       <c r="K9">
-        <v>21.05115008373482</v>
+        <v>13.95241614465003</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.00761321915343</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>22.62455135820755</v>
+        <v>11.15511933662478</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.4602382279243</v>
+        <v>17.13731193852258</v>
       </c>
       <c r="C10">
-        <v>18.11181454149103</v>
+        <v>9.360803030905245</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>22.05133016491721</v>
+        <v>31.49734255889347</v>
       </c>
       <c r="F10">
-        <v>48.89050749473159</v>
+        <v>39.00000568384523</v>
       </c>
       <c r="G10">
-        <v>2.033672800920671</v>
+        <v>14.99800380659786</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.152554347909788</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.156622724255514</v>
+        <v>4.133963570511964</v>
       </c>
       <c r="K10">
-        <v>23.07540651188926</v>
+        <v>14.9932007137897</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.47539334059189</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>23.96910410527175</v>
+        <v>10.78621659295865</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.4835342469017</v>
+        <v>17.71354505070359</v>
       </c>
       <c r="C11">
-        <v>18.80832587021777</v>
+        <v>9.587614757809327</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>22.8163104659526</v>
+        <v>32.59271567733688</v>
       </c>
       <c r="F11">
-        <v>50.52986871055077</v>
+        <v>40.16215620179246</v>
       </c>
       <c r="G11">
-        <v>2.026208735773419</v>
+        <v>14.96234662988039</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.046740343669629</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.166521270288291</v>
+        <v>4.088651793396984</v>
       </c>
       <c r="K11">
-        <v>23.95849457021082</v>
+        <v>15.44445344590691</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.23295432457113</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>24.60493729951904</v>
+        <v>10.63663331683352</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.86500464036535</v>
+        <v>17.92722846673151</v>
       </c>
       <c r="C12">
-        <v>19.06811096186342</v>
+        <v>9.672284989115825</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>23.10265094190863</v>
+        <v>33.00142588153048</v>
       </c>
       <c r="F12">
-        <v>51.14895031459857</v>
+        <v>40.60047355912405</v>
       </c>
       <c r="G12">
-        <v>2.023383952933675</v>
+        <v>14.95740686540081</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.00759919332476</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.171246686400457</v>
+        <v>4.071695784159783</v>
       </c>
       <c r="K12">
-        <v>24.28771373856424</v>
+        <v>15.61212598780186</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.14098465780743</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>24.84934218145046</v>
+        <v>10.58289581997118</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.78311172807111</v>
+        <v>17.88140856023051</v>
       </c>
       <c r="C13">
-        <v>19.01233456887178</v>
+        <v>9.654104478931375</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>23.04112903950001</v>
+        <v>32.91367254160765</v>
       </c>
       <c r="F13">
-        <v>51.01569151244549</v>
+        <v>40.50615424594628</v>
       </c>
       <c r="G13">
-        <v>2.023992315043637</v>
+        <v>14.95807820369756</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.015986547497352</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.170184104566106</v>
+        <v>4.075338549905176</v>
       </c>
       <c r="K13">
-        <v>24.21703705477072</v>
+        <v>15.57615745854143</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.16080121323937</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>24.79654088716624</v>
+        <v>10.59433499566794</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.51503724058604</v>
+        <v>17.73121537778207</v>
       </c>
       <c r="C14">
-        <v>18.82977682040503</v>
+        <v>9.594605247494421</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>22.83993414016165</v>
+        <v>32.62646214050343</v>
       </c>
       <c r="F14">
-        <v>50.58083359627958</v>
+        <v>40.19825282335444</v>
       </c>
       <c r="G14">
-        <v>2.025976330222192</v>
+        <v>14.96176440451067</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.043501178116189</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.166889941475987</v>
+        <v>4.087252750909319</v>
       </c>
       <c r="K14">
-        <v>23.98568210452055</v>
+        <v>15.45831228610711</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.22539190561944</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>24.62497086947188</v>
+        <v>10.63215230136476</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.35005713423944</v>
+        <v>17.63862961959862</v>
       </c>
       <c r="C15">
-        <v>18.71744460337694</v>
+        <v>9.558000529551963</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>22.71626485482169</v>
+        <v>32.44974668566684</v>
       </c>
       <c r="F15">
-        <v>50.31425599578297</v>
+        <v>40.00942120709548</v>
       </c>
       <c r="G15">
-        <v>2.027191688810319</v>
+        <v>14.96515933318082</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.060477608247608</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.165002044089919</v>
+        <v>4.094576931216657</v>
       </c>
       <c r="K15">
-        <v>23.84330264216585</v>
+        <v>15.38571081520407</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.26493065350474</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>24.52035716341788</v>
+        <v>10.65570401713291</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.39250437074611</v>
+        <v>17.09901894497814</v>
       </c>
       <c r="C16">
-        <v>18.06572880832542</v>
+        <v>9.345811825579982</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>22.00086339596688</v>
+        <v>31.42490358616183</v>
       </c>
       <c r="F16">
-        <v>48.78311886550109</v>
+        <v>38.92381640737409</v>
       </c>
       <c r="G16">
-        <v>2.034161064478922</v>
+        <v>15.00149192516407</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.159595812854998</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.156107794629493</v>
+        <v>4.136953142865347</v>
       </c>
       <c r="K16">
-        <v>23.01695499183027</v>
+        <v>14.96326203209016</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.49122104322679</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>23.92804938535246</v>
+        <v>10.79638267071402</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.79404082664215</v>
+        <v>16.75989360249689</v>
       </c>
       <c r="C17">
-        <v>17.65862644344189</v>
+        <v>9.213510604593434</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>21.55592587054112</v>
+        <v>30.78531719407309</v>
       </c>
       <c r="F17">
-        <v>47.84052836055304</v>
+        <v>38.25483412436174</v>
       </c>
       <c r="G17">
-        <v>2.038444059321694</v>
+        <v>15.03823542847226</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.221985058346759</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.152299215228553</v>
+        <v>4.163310343494757</v>
       </c>
       <c r="K17">
-        <v>22.5005115019451</v>
+        <v>14.698402857168</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.62987983656973</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>23.57097500339581</v>
+        <v>10.88754634308107</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.44568020189207</v>
+        <v>16.56185439140331</v>
       </c>
       <c r="C18">
-        <v>17.42172595490723</v>
+        <v>9.136644707199981</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>21.29775563038671</v>
+        <v>30.41343958841762</v>
       </c>
       <c r="F18">
-        <v>47.29711534608228</v>
+        <v>37.86900399278221</v>
       </c>
       <c r="G18">
-        <v>2.040911556062613</v>
+        <v>15.06443897001517</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.258432079961567</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.150687499356767</v>
+        <v>4.178602962932342</v>
       </c>
       <c r="K18">
-        <v>22.19989713612734</v>
+        <v>14.54397292972417</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.70960932452153</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>23.36786047046358</v>
+        <v>10.94167838537732</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.32701249145348</v>
+        <v>16.4942884855938</v>
       </c>
       <c r="C19">
-        <v>17.34103799507947</v>
+        <v>9.110488372381857</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>21.20995456146099</v>
+        <v>30.28684029747096</v>
       </c>
       <c r="F19">
-        <v>47.11290533579494</v>
+        <v>37.73819411664567</v>
       </c>
       <c r="G19">
-        <v>2.041747815775234</v>
+        <v>15.07415863251211</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.270867258768529</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.150238773758086</v>
+        <v>4.183803577885967</v>
       </c>
       <c r="K19">
-        <v>22.09749420864149</v>
+        <v>14.49132725392968</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.73660367582514</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>23.29947464312666</v>
+        <v>10.96028991166199</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.8581749397327</v>
+        <v>16.79630262646591</v>
       </c>
       <c r="C20">
-        <v>17.70224596566801</v>
+        <v>9.227674272572674</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>21.60352300794914</v>
+        <v>30.85381663223829</v>
       </c>
       <c r="F20">
-        <v>47.94099823523879</v>
+        <v>38.32615834611621</v>
       </c>
       <c r="G20">
-        <v>2.037987737711449</v>
+        <v>15.03379383838308</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.215284991286028</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.152644146204169</v>
+        <v>4.160490847998741</v>
       </c>
       <c r="K20">
-        <v>22.55585557439722</v>
+        <v>14.72681400190593</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.6151225916033</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>23.60875080980799</v>
+        <v>10.87766421405849</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.5939385649622</v>
+        <v>17.77545325285105</v>
       </c>
       <c r="C21">
-        <v>18.88350440641672</v>
+        <v>9.612114959553908</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>22.89911967553364</v>
+        <v>32.71098749241494</v>
       </c>
       <c r="F21">
-        <v>50.70860608732721</v>
+        <v>40.28873969292784</v>
       </c>
       <c r="G21">
-        <v>2.025393565665811</v>
+        <v>14.96044341943038</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.035393720598941</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.167830290357367</v>
+        <v>4.083747761354686</v>
       </c>
       <c r="K21">
-        <v>24.05377537556781</v>
+        <v>15.493013371015</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.20642547087251</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>24.67526521000466</v>
+        <v>10.62096312696184</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.69336294659848</v>
+        <v>18.38903593792392</v>
       </c>
       <c r="C22">
-        <v>19.63250618926489</v>
+        <v>9.856254150025935</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.72646988145442</v>
+        <v>33.90916677797585</v>
       </c>
       <c r="F22">
-        <v>52.5076281519824</v>
+        <v>41.56109553480213</v>
       </c>
       <c r="G22">
-        <v>2.017170167397646</v>
+        <v>14.96274306784679</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6.923271938551643</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.183495102838558</v>
+        <v>4.034772894344057</v>
       </c>
       <c r="K22">
-        <v>25.00265057643228</v>
+        <v>15.97507595761052</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.938303462360496</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>25.39355344880864</v>
+        <v>10.47029144706923</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.10968476815294</v>
+        <v>18.06395472303081</v>
       </c>
       <c r="C23">
-        <v>19.23478170444809</v>
+        <v>9.72661459659998</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>23.2866299816865</v>
+        <v>33.26365062369742</v>
       </c>
       <c r="F23">
-        <v>51.54825070259572</v>
+        <v>40.88299141230606</v>
       </c>
       <c r="G23">
-        <v>2.021559929608533</v>
+        <v>14.95667791486744</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6.982591594283644</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.174579414435284</v>
+        <v>4.060803502143294</v>
       </c>
       <c r="K23">
-        <v>24.49888514743173</v>
+        <v>15.71950259245423</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.08153973158041</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>25.00818069526619</v>
+        <v>10.5490405092212</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.82919330806015</v>
+        <v>16.7798516761439</v>
       </c>
       <c r="C24">
-        <v>17.6825344779858</v>
+        <v>9.221273379970471</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>21.58201172946698</v>
+        <v>30.82286102916268</v>
       </c>
       <c r="F24">
-        <v>47.89558050535005</v>
+        <v>38.29391646333082</v>
       </c>
       <c r="G24">
-        <v>2.038194024384156</v>
+        <v>15.03578611788794</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.218312293952231</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.15248640920352</v>
+        <v>4.161765107340953</v>
       </c>
       <c r="K24">
-        <v>22.53084607471433</v>
+        <v>14.71397604656645</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.62179429390334</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>23.59166561218099</v>
+        <v>10.88212658570017</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.21017508895341</v>
+        <v>15.28060458572024</v>
       </c>
       <c r="C25">
-        <v>15.902548538529</v>
+        <v>8.646986138542816</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>19.65719244600555</v>
+        <v>28.03724155749568</v>
       </c>
       <c r="F25">
-        <v>43.90790305075077</v>
+        <v>35.46228582190886</v>
       </c>
       <c r="G25">
-        <v>2.056303104966426</v>
+        <v>15.31182235452093</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.493905445760745</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.150506815405871</v>
+        <v>4.275745741226925</v>
       </c>
       <c r="K25">
-        <v>20.27074264040774</v>
+        <v>13.54960135139099</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.20402222009376</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>22.15009817523353</v>
+        <v>11.30542933149775</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.07754458593966</v>
+        <v>9.327399406679785</v>
       </c>
       <c r="C2">
-        <v>8.200868099474826</v>
+        <v>6.409948786382023</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.85573287962746</v>
+        <v>24.57431050371444</v>
       </c>
       <c r="F2">
-        <v>33.35270655030362</v>
+        <v>39.43079075513764</v>
       </c>
       <c r="G2">
-        <v>15.65134493787864</v>
+        <v>24.37199077321862</v>
       </c>
       <c r="H2">
-        <v>7.7133541652809</v>
+        <v>13.37699555961789</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.364083271618236</v>
+        <v>7.758437319948225</v>
       </c>
       <c r="K2">
-        <v>12.62465956155765</v>
+        <v>8.593915754289915</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.66332433738218</v>
+        <v>19.74384981818503</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.20007975903266</v>
+        <v>8.949646982079191</v>
       </c>
       <c r="C3">
-        <v>7.885244987995686</v>
+        <v>6.276082660054503</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.29805086461635</v>
+        <v>24.20900703491147</v>
       </c>
       <c r="F3">
-        <v>31.91424054229454</v>
+        <v>39.28267870295038</v>
       </c>
       <c r="G3">
-        <v>15.95302154106872</v>
+        <v>24.57488669666958</v>
       </c>
       <c r="H3">
-        <v>7.87168008422576</v>
+        <v>13.44073430844226</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.426738357534346</v>
+        <v>7.782569894448106</v>
       </c>
       <c r="K3">
-        <v>11.9565748277183</v>
+        <v>8.265763939214965</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.93104221604094</v>
+        <v>19.86558674690869</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.63066198740513</v>
+        <v>8.709834113255562</v>
       </c>
       <c r="C4">
-        <v>7.685413497952282</v>
+        <v>6.192341479013633</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.30385368329732</v>
+        <v>23.98743062499479</v>
       </c>
       <c r="F4">
-        <v>31.02953090980544</v>
+        <v>39.2029768627571</v>
       </c>
       <c r="G4">
-        <v>16.1693940977763</v>
+        <v>24.70866935439257</v>
       </c>
       <c r="H4">
-        <v>7.97344056728533</v>
+        <v>13.48209134234088</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.466597353271803</v>
+        <v>7.798197727053309</v>
       </c>
       <c r="K4">
-        <v>11.52650717720395</v>
+        <v>8.056141908174155</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.10681230856119</v>
+        <v>19.94490682421316</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.3909261102833</v>
+        <v>8.610262670165824</v>
       </c>
       <c r="C5">
-        <v>7.602552315998727</v>
+        <v>6.157864118017514</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.88949070917082</v>
+        <v>23.8979310382758</v>
       </c>
       <c r="F5">
-        <v>30.66912823838674</v>
+        <v>39.17334671822253</v>
       </c>
       <c r="G5">
-        <v>16.26481762074162</v>
+        <v>24.76549060526198</v>
       </c>
       <c r="H5">
-        <v>8.016027886640636</v>
+        <v>13.49950399047754</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.483191380413965</v>
+        <v>7.804770476240586</v>
       </c>
       <c r="K5">
-        <v>11.34635255004484</v>
+        <v>7.968757311034095</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.18116883544618</v>
+        <v>19.9783801314793</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.35065414865712</v>
+        <v>8.593621656073479</v>
       </c>
       <c r="C6">
-        <v>7.588709872944182</v>
+        <v>6.152119016962065</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.8201389598712</v>
+        <v>23.88312089377955</v>
       </c>
       <c r="F6">
-        <v>30.609306741058</v>
+        <v>39.16859931354586</v>
       </c>
       <c r="G6">
-        <v>16.28108429418195</v>
+        <v>24.77506456512841</v>
       </c>
       <c r="H6">
-        <v>8.023166419980722</v>
+        <v>13.50242915250472</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.485968076987946</v>
+        <v>7.80587422947271</v>
       </c>
       <c r="K6">
-        <v>11.31614539536819</v>
+        <v>7.954131326954518</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.19367682618227</v>
+        <v>19.98400778482396</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.62745994849094</v>
+        <v>8.70849854276825</v>
       </c>
       <c r="C7">
-        <v>7.684301658616804</v>
+        <v>6.191877881272322</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23.29830234123736</v>
+        <v>23.98622024006922</v>
       </c>
       <c r="F7">
-        <v>31.02466919406063</v>
+        <v>39.20256569779178</v>
       </c>
       <c r="G7">
-        <v>16.1706523962469</v>
+        <v>24.70942635180202</v>
       </c>
       <c r="H7">
-        <v>7.974010413347258</v>
+        <v>13.48232390968563</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.466819721498718</v>
+        <v>7.79828554163794</v>
       </c>
       <c r="K7">
-        <v>11.52409724003489</v>
+        <v>8.054971234196536</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.10780422557228</v>
+        <v>19.94535360196615</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.78136064808511</v>
+        <v>9.19885919484997</v>
       </c>
       <c r="C8">
-        <v>8.093344824463728</v>
+        <v>6.364134366419948</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>25.32662744728549</v>
+        <v>24.44785545905084</v>
       </c>
       <c r="F8">
-        <v>32.85731202006232</v>
+        <v>39.37740378421707</v>
       </c>
       <c r="G8">
-        <v>15.74853777739659</v>
+        <v>24.44003259045772</v>
       </c>
       <c r="H8">
-        <v>7.766985221693187</v>
+        <v>13.39851214547548</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.385399723832718</v>
+        <v>7.766590357378308</v>
       </c>
       <c r="K8">
-        <v>12.39847662468316</v>
+        <v>8.482504615459568</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.75318301193439</v>
+        <v>19.78487542133741</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.80097864042604</v>
+        <v>10.09293208870264</v>
       </c>
       <c r="C9">
-        <v>8.844191658058316</v>
+        <v>6.688125152107801</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>28.99600559892276</v>
+        <v>25.36984466089142</v>
       </c>
       <c r="F9">
-        <v>36.42067744299192</v>
+        <v>39.80825919335658</v>
       </c>
       <c r="G9">
-        <v>15.19582637113899</v>
+        <v>23.98526543937364</v>
       </c>
       <c r="H9">
-        <v>7.398396011761381</v>
+        <v>13.25174560485603</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.236669392019709</v>
+        <v>7.710842277271221</v>
       </c>
       <c r="K9">
-        <v>13.95241614465003</v>
+        <v>9.253173950067584</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.15511933662478</v>
+        <v>19.50647381342153</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.13731193852258</v>
+        <v>10.70287944492555</v>
       </c>
       <c r="C10">
-        <v>9.360803030905245</v>
+        <v>6.915827892633962</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>31.49734255889347</v>
+        <v>26.05093800629954</v>
       </c>
       <c r="F10">
-        <v>39.00000568384523</v>
+        <v>40.17661384442843</v>
       </c>
       <c r="G10">
-        <v>14.99800380659786</v>
+        <v>23.6966451713985</v>
       </c>
       <c r="H10">
-        <v>7.152554347909788</v>
+        <v>13.15458781356901</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.133963570511964</v>
+        <v>7.673756450190424</v>
       </c>
       <c r="K10">
-        <v>14.9932007137897</v>
+        <v>9.774501415901572</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.78621659295865</v>
+        <v>19.32407367389288</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.71354505070359</v>
+        <v>10.96921257602166</v>
       </c>
       <c r="C11">
-        <v>9.587614757809327</v>
+        <v>7.016805053282163</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>32.59271567733688</v>
+        <v>26.36024520352134</v>
       </c>
       <c r="F11">
-        <v>40.16215620179246</v>
+        <v>40.35496854584605</v>
       </c>
       <c r="G11">
-        <v>14.96234662988039</v>
+        <v>23.57537664052201</v>
       </c>
       <c r="H11">
-        <v>7.046740343669629</v>
+        <v>13.11269508904002</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.088651793396984</v>
+        <v>7.6577189905957</v>
       </c>
       <c r="K11">
-        <v>15.44445344590691</v>
+        <v>10.00132409122407</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.63663331683352</v>
+        <v>19.24590793128564</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.92722846673151</v>
+        <v>11.06839984081079</v>
       </c>
       <c r="C12">
-        <v>9.672284989115825</v>
+        <v>7.054639808124223</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>33.00142588153048</v>
+        <v>26.47718749755689</v>
       </c>
       <c r="F12">
-        <v>40.60047355912405</v>
+        <v>40.42401354753278</v>
       </c>
       <c r="G12">
-        <v>14.95740686540081</v>
+        <v>23.53091051618344</v>
       </c>
       <c r="H12">
-        <v>7.00759919332476</v>
+        <v>13.09716214629272</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.071695784159783</v>
+        <v>7.651765297610169</v>
       </c>
       <c r="K12">
-        <v>15.61212598780186</v>
+        <v>10.0856896425282</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.58289581997118</v>
+        <v>19.21700088879649</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.88140856023051</v>
+        <v>11.04711319242455</v>
       </c>
       <c r="C13">
-        <v>9.654104478931375</v>
+        <v>7.046509774908443</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>32.91367254160765</v>
+        <v>26.45201185191429</v>
       </c>
       <c r="F13">
-        <v>40.50615424594628</v>
+        <v>40.40907724878276</v>
       </c>
       <c r="G13">
-        <v>14.95807820369756</v>
+        <v>23.5404221273122</v>
       </c>
       <c r="H13">
-        <v>7.015986547497352</v>
+        <v>13.10049273337421</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.075338549905176</v>
+        <v>7.653042231115406</v>
       </c>
       <c r="K13">
-        <v>15.57615745854143</v>
+        <v>10.06758853457269</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.59433499566794</v>
+        <v>19.22319571418675</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.73121537778207</v>
+        <v>10.97740653150596</v>
       </c>
       <c r="C14">
-        <v>9.594605247494421</v>
+        <v>7.019925975386538</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>32.62646214050343</v>
+        <v>26.36987045428858</v>
       </c>
       <c r="F14">
-        <v>40.19825282335444</v>
+        <v>40.3606190091315</v>
       </c>
       <c r="G14">
-        <v>14.96176440451067</v>
+        <v>23.57168913191909</v>
       </c>
       <c r="H14">
-        <v>7.043501178116189</v>
+        <v>13.11141055512809</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.087252750909319</v>
+        <v>7.657226787393652</v>
       </c>
       <c r="K14">
-        <v>15.45831228610711</v>
+        <v>10.00829572110887</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.63215230136476</v>
+        <v>19.24351584354377</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.63862961959862</v>
+        <v>10.93449026043295</v>
       </c>
       <c r="C15">
-        <v>9.558000529551963</v>
+        <v>7.003589327381624</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>32.44974668566684</v>
+        <v>26.31952909693475</v>
       </c>
       <c r="F15">
-        <v>40.00942120709548</v>
+        <v>40.33113165733894</v>
       </c>
       <c r="G15">
-        <v>14.96515933318082</v>
+        <v>23.59103105941244</v>
       </c>
       <c r="H15">
-        <v>7.060477608247608</v>
+        <v>13.11814111745516</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.094576931216657</v>
+        <v>7.659805477935127</v>
       </c>
       <c r="K15">
-        <v>15.38571081520407</v>
+        <v>9.971777135852953</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.65570401713291</v>
+        <v>19.2560527444925</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.09901894497814</v>
+        <v>10.68524400597144</v>
       </c>
       <c r="C16">
-        <v>9.345811825579982</v>
+        <v>6.909173887248891</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>31.42490358616183</v>
+        <v>26.03070399021938</v>
       </c>
       <c r="F16">
-        <v>38.92381640737409</v>
+        <v>40.16517122354315</v>
       </c>
       <c r="G16">
-        <v>15.00149192516407</v>
+        <v>23.70477328718512</v>
       </c>
       <c r="H16">
-        <v>7.159595812854998</v>
+        <v>13.15737193664819</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.136953142865347</v>
+        <v>7.674821260816493</v>
       </c>
       <c r="K16">
-        <v>14.96326203209016</v>
+        <v>9.75946642230296</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.79638267071402</v>
+        <v>19.32927884999489</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.75989360249689</v>
+        <v>10.5294373372114</v>
       </c>
       <c r="C17">
-        <v>9.213510604593434</v>
+        <v>6.850564788863569</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>30.78531719407309</v>
+        <v>25.85330513762347</v>
       </c>
       <c r="F17">
-        <v>38.25483412436174</v>
+        <v>40.0660917110155</v>
       </c>
       <c r="G17">
-        <v>15.03823542847226</v>
+        <v>23.77712818907671</v>
       </c>
       <c r="H17">
-        <v>7.221985058346759</v>
+        <v>13.18202872649081</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.163310343494757</v>
+        <v>7.684246004562207</v>
       </c>
       <c r="K17">
-        <v>14.698402857168</v>
+        <v>9.626542872321309</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.88754634308107</v>
+        <v>19.37543314355625</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.56185439140331</v>
+        <v>10.43877666445965</v>
       </c>
       <c r="C18">
-        <v>9.136644707199981</v>
+        <v>6.816610666629735</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>30.41343958841762</v>
+        <v>25.75122692060667</v>
       </c>
       <c r="F18">
-        <v>37.86900399278221</v>
+        <v>40.01012216655687</v>
       </c>
       <c r="G18">
-        <v>15.06443897001517</v>
+        <v>23.81968768421299</v>
       </c>
       <c r="H18">
-        <v>7.258432079961567</v>
+        <v>13.19642763120215</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.178602962932342</v>
+        <v>7.689745306782945</v>
       </c>
       <c r="K18">
-        <v>14.54397292972417</v>
+        <v>9.549118346716973</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.94167838537732</v>
+        <v>19.40243244571859</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.4942884855938</v>
+        <v>10.40790325143945</v>
       </c>
       <c r="C19">
-        <v>9.110488372381857</v>
+        <v>6.805073423256512</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>30.28684029747096</v>
+        <v>25.71666099968262</v>
       </c>
       <c r="F19">
-        <v>37.73819411664567</v>
+        <v>39.99134807907334</v>
       </c>
       <c r="G19">
-        <v>15.07415863251211</v>
+        <v>23.83425911978388</v>
       </c>
       <c r="H19">
-        <v>7.270867258768529</v>
+        <v>13.2013401340104</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.183803577885967</v>
+        <v>7.691620761775487</v>
       </c>
       <c r="K19">
-        <v>14.49132725392968</v>
+        <v>9.522738432330856</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.96028991166199</v>
+        <v>19.41165164358907</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.79630262646591</v>
+        <v>10.54613186590998</v>
       </c>
       <c r="C20">
-        <v>9.227674272572674</v>
+        <v>6.856829263444594</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>30.85381663223829</v>
+        <v>25.8721948162151</v>
       </c>
       <c r="F20">
-        <v>38.32615834611621</v>
+        <v>40.0765338157509</v>
       </c>
       <c r="G20">
-        <v>15.03379383838308</v>
+        <v>23.76932820340832</v>
       </c>
       <c r="H20">
-        <v>7.215284991286028</v>
+        <v>13.17938151717844</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.160490847998741</v>
+        <v>7.683234609642701</v>
       </c>
       <c r="K20">
-        <v>14.72681400190593</v>
+        <v>9.640793566255645</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.87766421405849</v>
+        <v>19.37047309291708</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.77545325285105</v>
+        <v>10.99792679653842</v>
       </c>
       <c r="C21">
-        <v>9.612114959553908</v>
+        <v>7.027745437813643</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>32.71098749241494</v>
+        <v>26.39400327104261</v>
       </c>
       <c r="F21">
-        <v>40.28873969292784</v>
+        <v>40.37481187468826</v>
       </c>
       <c r="G21">
-        <v>14.96044341943038</v>
+        <v>23.56246563694063</v>
       </c>
       <c r="H21">
-        <v>7.035393720598941</v>
+        <v>13.1081947490027</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.083747761354686</v>
+        <v>7.655994446345087</v>
       </c>
       <c r="K21">
-        <v>15.493013371015</v>
+        <v>10.02575320843103</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.62096312696184</v>
+        <v>19.23752852198696</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.38903593792392</v>
+        <v>11.2834585033547</v>
       </c>
       <c r="C22">
-        <v>9.856254150025935</v>
+        <v>7.13708771344151</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>33.90916677797585</v>
+        <v>26.73390486969086</v>
       </c>
       <c r="F22">
-        <v>41.56109553480213</v>
+        <v>40.57850849371128</v>
       </c>
       <c r="G22">
-        <v>14.96274306784679</v>
+        <v>23.4357602332933</v>
       </c>
       <c r="H22">
-        <v>6.923271938551643</v>
+        <v>13.06359873598263</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.034772894344057</v>
+        <v>7.638886854104175</v>
       </c>
       <c r="K22">
-        <v>15.97507595761052</v>
+        <v>10.26842936514325</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10.47029144706923</v>
+        <v>19.1546793084396</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.06395472303081</v>
+        <v>11.13197566453775</v>
       </c>
       <c r="C23">
-        <v>9.72661459659998</v>
+        <v>7.078954590461811</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>33.26365062369742</v>
+        <v>26.5526318254121</v>
       </c>
       <c r="F23">
-        <v>40.88299141230606</v>
+        <v>40.4690064937321</v>
       </c>
       <c r="G23">
-        <v>14.95667791486744</v>
+        <v>23.50260367111954</v>
       </c>
       <c r="H23">
-        <v>6.982591594283644</v>
+        <v>13.08722415659708</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.060803502143294</v>
+        <v>7.647954013158633</v>
       </c>
       <c r="K23">
-        <v>15.71950259245423</v>
+        <v>10.1397366431958</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.5490405092212</v>
+        <v>19.19852764847017</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.7798516761439</v>
+        <v>10.53858764496759</v>
       </c>
       <c r="C24">
-        <v>9.221273379970471</v>
+        <v>6.853997898969327</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>30.82286102916268</v>
+        <v>25.86365506206991</v>
       </c>
       <c r="F24">
-        <v>38.29391646333082</v>
+        <v>40.07180984486422</v>
       </c>
       <c r="G24">
-        <v>15.03578611788794</v>
+        <v>23.77285158230014</v>
       </c>
       <c r="H24">
-        <v>7.218312293952231</v>
+        <v>13.18057762461344</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.161765107340953</v>
+        <v>7.683691609277813</v>
       </c>
       <c r="K24">
-        <v>14.71397604656645</v>
+        <v>9.634353954716262</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.88212658570017</v>
+        <v>19.37271408471087</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.28060458572024</v>
+        <v>9.858938150198188</v>
       </c>
       <c r="C25">
-        <v>8.646986138542816</v>
+        <v>6.602160402581723</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>28.03724155749568</v>
+        <v>25.1193064554557</v>
       </c>
       <c r="F25">
-        <v>35.46228582190886</v>
+        <v>39.68245581113076</v>
       </c>
       <c r="G25">
-        <v>15.31182235452093</v>
+        <v>24.10035279992199</v>
       </c>
       <c r="H25">
-        <v>7.493905445760745</v>
+        <v>13.28957224688464</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.275745741226925</v>
+        <v>7.725241231338076</v>
       </c>
       <c r="K25">
-        <v>13.54960135139099</v>
+        <v>9.052342090700288</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.30542933149775</v>
+        <v>19.57790196034495</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.327399406679785</v>
+        <v>14.07754458593973</v>
       </c>
       <c r="C2">
-        <v>6.409948786382023</v>
+        <v>8.200868099474814</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>24.57431050371444</v>
+        <v>25.8557328796275</v>
       </c>
       <c r="F2">
-        <v>39.43079075513764</v>
+        <v>33.35270655030367</v>
       </c>
       <c r="G2">
-        <v>24.37199077321862</v>
+        <v>15.65134493787819</v>
       </c>
       <c r="H2">
-        <v>13.37699555961789</v>
+        <v>7.713354165280832</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.758437319948225</v>
+        <v>4.364083271618106</v>
       </c>
       <c r="K2">
-        <v>8.593915754289915</v>
+        <v>12.62465956155767</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.74384981818503</v>
+        <v>11.66332433738195</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.949646982079191</v>
+        <v>13.20007975903263</v>
       </c>
       <c r="C3">
-        <v>6.276082660054503</v>
+        <v>7.885244987995573</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.20900703491147</v>
+        <v>24.29805086461637</v>
       </c>
       <c r="F3">
-        <v>39.28267870295038</v>
+        <v>31.91424054229458</v>
       </c>
       <c r="G3">
-        <v>24.57488669666958</v>
+        <v>15.95302154106881</v>
       </c>
       <c r="H3">
-        <v>13.44073430844226</v>
+        <v>7.871680084225765</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.782569894448106</v>
+        <v>4.426738357534349</v>
       </c>
       <c r="K3">
-        <v>8.265763939214965</v>
+        <v>11.95657482771825</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.86558674690869</v>
+        <v>11.931042216041</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.709834113255562</v>
+        <v>12.63066198740517</v>
       </c>
       <c r="C4">
-        <v>6.192341479013633</v>
+        <v>7.685413497952474</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.98743062499479</v>
+        <v>23.30385368329733</v>
       </c>
       <c r="F4">
-        <v>39.2029768627571</v>
+        <v>31.02953090980542</v>
       </c>
       <c r="G4">
-        <v>24.70866935439257</v>
+        <v>16.16939409777609</v>
       </c>
       <c r="H4">
-        <v>13.48209134234088</v>
+        <v>7.97344056728533</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.798197727053309</v>
+        <v>4.466597353271803</v>
       </c>
       <c r="K4">
-        <v>8.056141908174155</v>
+        <v>11.52650717720402</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.94490682421316</v>
+        <v>12.10681230856116</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.610262670165824</v>
+        <v>12.3909261102834</v>
       </c>
       <c r="C5">
-        <v>6.157864118017514</v>
+        <v>7.602552315998611</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23.8979310382758</v>
+        <v>22.88949070917083</v>
       </c>
       <c r="F5">
-        <v>39.17334671822253</v>
+        <v>30.6691282383867</v>
       </c>
       <c r="G5">
-        <v>24.76549060526198</v>
+        <v>16.26481762074143</v>
       </c>
       <c r="H5">
-        <v>13.49950399047754</v>
+        <v>8.01602788664057</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.804770476240586</v>
+        <v>4.483191380413897</v>
       </c>
       <c r="K5">
-        <v>7.968757311034095</v>
+        <v>11.34635255004488</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.9783801314793</v>
+        <v>12.18116883544602</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.593621656073479</v>
+        <v>12.35065414865718</v>
       </c>
       <c r="C6">
-        <v>6.152119016962065</v>
+        <v>7.58870987294438</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23.88312089377955</v>
+        <v>22.82013895987126</v>
       </c>
       <c r="F6">
-        <v>39.16859931354586</v>
+        <v>30.609306741058</v>
       </c>
       <c r="G6">
-        <v>24.77506456512841</v>
+        <v>16.28108429418182</v>
       </c>
       <c r="H6">
-        <v>13.50242915250472</v>
+        <v>8.023166419980718</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.80587422947271</v>
+        <v>4.485968076987978</v>
       </c>
       <c r="K6">
-        <v>7.954131326954518</v>
+        <v>11.31614539536829</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.98400778482396</v>
+        <v>12.19367682618221</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.70849854276825</v>
+        <v>12.62745994849095</v>
       </c>
       <c r="C7">
-        <v>6.191877881272322</v>
+        <v>7.684301658616724</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23.98622024006922</v>
+        <v>23.29830234123732</v>
       </c>
       <c r="F7">
-        <v>39.20256569779178</v>
+        <v>31.02466919406059</v>
       </c>
       <c r="G7">
-        <v>24.70942635180202</v>
+        <v>16.17065239624684</v>
       </c>
       <c r="H7">
-        <v>13.48232390968563</v>
+        <v>7.974010413347132</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.79828554163794</v>
+        <v>4.466819721498651</v>
       </c>
       <c r="K7">
-        <v>8.054971234196536</v>
+        <v>11.52409724003492</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.94535360196615</v>
+        <v>12.1078042255722</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.19885919484997</v>
+        <v>13.78136064808516</v>
       </c>
       <c r="C8">
-        <v>6.364134366419948</v>
+        <v>8.093344824463703</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>24.44785545905084</v>
+        <v>25.32662744728549</v>
       </c>
       <c r="F8">
-        <v>39.37740378421707</v>
+        <v>32.85731202006237</v>
       </c>
       <c r="G8">
-        <v>24.44003259045772</v>
+        <v>15.7485377773964</v>
       </c>
       <c r="H8">
-        <v>13.39851214547548</v>
+        <v>7.766985221693321</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.766590357378308</v>
+        <v>4.385399723832685</v>
       </c>
       <c r="K8">
-        <v>8.482504615459568</v>
+        <v>12.39847662468318</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.78487542133741</v>
+        <v>11.75318301193434</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.09293208870264</v>
+        <v>15.80097864042601</v>
       </c>
       <c r="C9">
-        <v>6.688125152107801</v>
+        <v>8.844191658058344</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>25.36984466089142</v>
+        <v>28.99600559892281</v>
       </c>
       <c r="F9">
-        <v>39.80825919335658</v>
+        <v>36.4206774429919</v>
       </c>
       <c r="G9">
-        <v>23.98526543937364</v>
+        <v>15.19582637113902</v>
       </c>
       <c r="H9">
-        <v>13.25174560485603</v>
+        <v>7.398396011761369</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.710842277271221</v>
+        <v>4.236669392019706</v>
       </c>
       <c r="K9">
-        <v>9.253173950067584</v>
+        <v>13.95241614465003</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.50647381342153</v>
+        <v>11.15511933662478</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.70287944492555</v>
+        <v>17.13731193852259</v>
       </c>
       <c r="C10">
-        <v>6.915827892633962</v>
+        <v>9.360803030905169</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>26.05093800629954</v>
+        <v>31.49734255889347</v>
       </c>
       <c r="F10">
-        <v>40.17661384442843</v>
+        <v>39.00000568384522</v>
       </c>
       <c r="G10">
-        <v>23.6966451713985</v>
+        <v>14.99800380659772</v>
       </c>
       <c r="H10">
-        <v>13.15458781356901</v>
+        <v>7.152554347909784</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.673756450190424</v>
+        <v>4.133963570511899</v>
       </c>
       <c r="K10">
-        <v>9.774501415901572</v>
+        <v>14.99320071378971</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.32407367389288</v>
+        <v>10.78621659295857</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.96921257602166</v>
+        <v>17.71354505070361</v>
       </c>
       <c r="C11">
-        <v>7.016805053282163</v>
+        <v>9.587614757809169</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>26.36024520352134</v>
+        <v>32.59271567733693</v>
       </c>
       <c r="F11">
-        <v>40.35496854584605</v>
+        <v>40.16215620179251</v>
       </c>
       <c r="G11">
-        <v>23.57537664052201</v>
+        <v>14.96234662988038</v>
       </c>
       <c r="H11">
-        <v>13.11269508904002</v>
+        <v>7.04674034366951</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.6577189905957</v>
+        <v>4.088651793396921</v>
       </c>
       <c r="K11">
-        <v>10.00132409122407</v>
+        <v>15.44445344590693</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.24590793128564</v>
+        <v>10.63663331683349</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.06839984081079</v>
+        <v>17.92722846673154</v>
       </c>
       <c r="C12">
-        <v>7.054639808124223</v>
+        <v>9.67228498911574</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>26.47718749755689</v>
+        <v>33.00142588153051</v>
       </c>
       <c r="F12">
-        <v>40.42401354753278</v>
+        <v>40.60047355912407</v>
       </c>
       <c r="G12">
-        <v>23.53091051618344</v>
+        <v>14.95740686540084</v>
       </c>
       <c r="H12">
-        <v>13.09716214629272</v>
+        <v>7.007599193324704</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.651765297610169</v>
+        <v>4.071695784159849</v>
       </c>
       <c r="K12">
-        <v>10.0856896425282</v>
+        <v>15.61212598780187</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.21700088879649</v>
+        <v>10.58289581997111</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.04711319242455</v>
+        <v>17.88140856023054</v>
       </c>
       <c r="C13">
-        <v>7.046509774908443</v>
+        <v>9.654104478931387</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>26.45201185191429</v>
+        <v>32.91367254160762</v>
       </c>
       <c r="F13">
-        <v>40.40907724878276</v>
+        <v>40.50615424594627</v>
       </c>
       <c r="G13">
-        <v>23.5404221273122</v>
+        <v>14.95807820369724</v>
       </c>
       <c r="H13">
-        <v>13.10049273337421</v>
+        <v>7.015986547497281</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.653042231115406</v>
+        <v>4.075338549905141</v>
       </c>
       <c r="K13">
-        <v>10.06758853457269</v>
+        <v>15.57615745854143</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.22319571418675</v>
+        <v>10.59433499566776</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.97740653150596</v>
+        <v>17.73121537778203</v>
       </c>
       <c r="C14">
-        <v>7.019925975386538</v>
+        <v>9.594605247494563</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>26.36987045428858</v>
+        <v>32.62646214050341</v>
       </c>
       <c r="F14">
-        <v>40.3606190091315</v>
+        <v>40.19825282335444</v>
       </c>
       <c r="G14">
-        <v>23.57168913191909</v>
+        <v>14.96176440451074</v>
       </c>
       <c r="H14">
-        <v>13.11141055512809</v>
+        <v>7.043501178116192</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.657226787393652</v>
+        <v>4.087252750909353</v>
       </c>
       <c r="K14">
-        <v>10.00829572110887</v>
+        <v>15.45831228610711</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.24351584354377</v>
+        <v>10.63215230136478</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.93449026043295</v>
+        <v>17.63862961959861</v>
       </c>
       <c r="C15">
-        <v>7.003589327381624</v>
+        <v>9.558000529552036</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>26.31952909693475</v>
+        <v>32.4497466856668</v>
       </c>
       <c r="F15">
-        <v>40.33113165733894</v>
+        <v>40.00942120709549</v>
       </c>
       <c r="G15">
-        <v>23.59103105941244</v>
+        <v>14.96515933318067</v>
       </c>
       <c r="H15">
-        <v>13.11814111745516</v>
+        <v>7.060477608247615</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.659805477935127</v>
+        <v>4.09457693121669</v>
       </c>
       <c r="K15">
-        <v>9.971777135852953</v>
+        <v>15.38571081520409</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.2560527444925</v>
+        <v>10.65570401713284</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.68524400597144</v>
+        <v>17.09901894497811</v>
       </c>
       <c r="C16">
-        <v>6.909173887248891</v>
+        <v>9.345811825580084</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>26.03070399021938</v>
+        <v>31.42490358616182</v>
       </c>
       <c r="F16">
-        <v>40.16517122354315</v>
+        <v>38.92381640737412</v>
       </c>
       <c r="G16">
-        <v>23.70477328718512</v>
+        <v>15.00149192516417</v>
       </c>
       <c r="H16">
-        <v>13.15737193664819</v>
+        <v>7.159595812855003</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.674821260816493</v>
+        <v>4.136953142865349</v>
       </c>
       <c r="K16">
-        <v>9.75946642230296</v>
+        <v>14.96326203209017</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.32927884999489</v>
+        <v>10.79638267071408</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.5294373372114</v>
+        <v>16.7598936024969</v>
       </c>
       <c r="C17">
-        <v>6.850564788863569</v>
+        <v>9.21351060459339</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>25.85330513762347</v>
+        <v>30.78531719407309</v>
       </c>
       <c r="F17">
-        <v>40.0660917110155</v>
+        <v>38.25483412436176</v>
       </c>
       <c r="G17">
-        <v>23.77712818907671</v>
+        <v>15.03823542847234</v>
       </c>
       <c r="H17">
-        <v>13.18202872649081</v>
+        <v>7.221985058346759</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.684246004562207</v>
+        <v>4.163310343494786</v>
       </c>
       <c r="K17">
-        <v>9.626542872321309</v>
+        <v>14.69840285716797</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.37543314355625</v>
+        <v>10.88754634308112</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.43877666445965</v>
+        <v>16.56185439140335</v>
       </c>
       <c r="C18">
-        <v>6.816610666629735</v>
+        <v>9.136644707200102</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>25.75122692060667</v>
+        <v>30.41343958841759</v>
       </c>
       <c r="F18">
-        <v>40.01012216655687</v>
+        <v>37.86900399278223</v>
       </c>
       <c r="G18">
-        <v>23.81968768421299</v>
+        <v>15.06443897001495</v>
       </c>
       <c r="H18">
-        <v>13.19642763120215</v>
+        <v>7.258432079961513</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.689745306782945</v>
+        <v>4.178602962932374</v>
       </c>
       <c r="K18">
-        <v>9.549118346716973</v>
+        <v>14.54397292972421</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.40243244571859</v>
+        <v>10.94167838537719</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.40790325143945</v>
+        <v>16.49428848559381</v>
       </c>
       <c r="C19">
-        <v>6.805073423256512</v>
+        <v>9.110488372381845</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>25.71666099968262</v>
+        <v>30.28684029747097</v>
       </c>
       <c r="F19">
-        <v>39.99134807907334</v>
+        <v>37.73819411664568</v>
       </c>
       <c r="G19">
-        <v>23.83425911978388</v>
+        <v>15.07415863251204</v>
       </c>
       <c r="H19">
-        <v>13.2013401340104</v>
+        <v>7.270867258768473</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.691620761775487</v>
+        <v>4.183803577885967</v>
       </c>
       <c r="K19">
-        <v>9.522738432330856</v>
+        <v>14.4913272539297</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.41165164358907</v>
+        <v>10.96028991166191</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.54613186590998</v>
+        <v>16.79630262646592</v>
       </c>
       <c r="C20">
-        <v>6.856829263444594</v>
+        <v>9.22767427257255</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>25.8721948162151</v>
+        <v>30.85381663223831</v>
       </c>
       <c r="F20">
-        <v>40.0765338157509</v>
+        <v>38.32615834611615</v>
       </c>
       <c r="G20">
-        <v>23.76932820340832</v>
+        <v>15.03379383838311</v>
       </c>
       <c r="H20">
-        <v>13.17938151717844</v>
+        <v>7.215284991285967</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.683234609642701</v>
+        <v>4.160490847998712</v>
       </c>
       <c r="K20">
-        <v>9.640793566255645</v>
+        <v>14.72681400190592</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.37047309291708</v>
+        <v>10.87766421405844</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.99792679653842</v>
+        <v>17.77545325285107</v>
       </c>
       <c r="C21">
-        <v>7.027745437813643</v>
+        <v>9.612114959553923</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>26.39400327104261</v>
+        <v>32.71098749241497</v>
       </c>
       <c r="F21">
-        <v>40.37481187468826</v>
+        <v>40.28873969292788</v>
       </c>
       <c r="G21">
-        <v>23.56246563694063</v>
+        <v>14.96044341943021</v>
       </c>
       <c r="H21">
-        <v>13.1081947490027</v>
+        <v>7.035393720598941</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.655994446345087</v>
+        <v>4.083747761354651</v>
       </c>
       <c r="K21">
-        <v>10.02575320843103</v>
+        <v>15.493013371015</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.23752852198696</v>
+        <v>10.62096312696176</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.2834585033547</v>
+        <v>18.38903593792392</v>
       </c>
       <c r="C22">
-        <v>7.13708771344151</v>
+        <v>9.856254150026018</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>26.73390486969086</v>
+        <v>33.90916677797583</v>
       </c>
       <c r="F22">
-        <v>40.57850849371128</v>
+        <v>41.56109553480213</v>
       </c>
       <c r="G22">
-        <v>23.4357602332933</v>
+        <v>14.96274306784676</v>
       </c>
       <c r="H22">
-        <v>13.06359873598263</v>
+        <v>6.923271938551637</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.638886854104175</v>
+        <v>4.034772894344084</v>
       </c>
       <c r="K22">
-        <v>10.26842936514325</v>
+        <v>15.97507595761055</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.1546793084396</v>
+        <v>10.47029144706921</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.13197566453775</v>
+        <v>18.06395472303078</v>
       </c>
       <c r="C23">
-        <v>7.078954590461811</v>
+        <v>9.726614596600022</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>26.5526318254121</v>
+        <v>33.26365062369748</v>
       </c>
       <c r="F23">
-        <v>40.4690064937321</v>
+        <v>40.88299141230607</v>
       </c>
       <c r="G23">
-        <v>23.50260367111954</v>
+        <v>14.95667791486736</v>
       </c>
       <c r="H23">
-        <v>13.08722415659708</v>
+        <v>6.982591594283567</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.647954013158633</v>
+        <v>4.060803502143264</v>
       </c>
       <c r="K23">
-        <v>10.1397366431958</v>
+        <v>15.71950259245423</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.19852764847017</v>
+        <v>10.5490405092211</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.53858764496759</v>
+        <v>16.7798516761439</v>
       </c>
       <c r="C24">
-        <v>6.853997898969327</v>
+        <v>9.221273379970635</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>25.86365506206991</v>
+        <v>30.82286102916269</v>
       </c>
       <c r="F24">
-        <v>40.07180984486422</v>
+        <v>38.29391646333082</v>
       </c>
       <c r="G24">
-        <v>23.77285158230014</v>
+        <v>15.03578611788778</v>
       </c>
       <c r="H24">
-        <v>13.18057762461344</v>
+        <v>7.21831229395223</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.683691609277813</v>
+        <v>4.16176510734089</v>
       </c>
       <c r="K24">
-        <v>9.634353954716262</v>
+        <v>14.71397604656648</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.37271408471087</v>
+        <v>10.8821265857001</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.858938150198188</v>
+        <v>15.28060458572027</v>
       </c>
       <c r="C25">
-        <v>6.602160402581723</v>
+        <v>8.646986138542816</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>25.1193064554557</v>
+        <v>28.0372415574957</v>
       </c>
       <c r="F25">
-        <v>39.68245581113076</v>
+        <v>35.46228582190881</v>
       </c>
       <c r="G25">
-        <v>24.10035279992199</v>
+        <v>15.31182235452061</v>
       </c>
       <c r="H25">
-        <v>13.28957224688464</v>
+        <v>7.493905445760681</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.725241231338076</v>
+        <v>4.275745741226859</v>
       </c>
       <c r="K25">
-        <v>9.052342090700288</v>
+        <v>13.54960135139106</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.57790196034495</v>
+        <v>11.3054293314976</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.07754458593973</v>
+        <v>12.28679401237423</v>
       </c>
       <c r="C2">
-        <v>8.200868099474814</v>
+        <v>8.109066460737251</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.8557328796275</v>
+        <v>26.41814288001181</v>
       </c>
       <c r="F2">
-        <v>33.35270655030367</v>
+        <v>35.33704792758001</v>
       </c>
       <c r="G2">
-        <v>15.65134493787819</v>
+        <v>17.55632961513957</v>
       </c>
       <c r="H2">
-        <v>7.713354165280832</v>
+        <v>1.843728857354916</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.708118270931985</v>
       </c>
       <c r="J2">
-        <v>4.364083271618106</v>
+        <v>8.089878954096848</v>
       </c>
       <c r="K2">
-        <v>12.62465956155767</v>
+        <v>12.23144150974505</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.288019243275052</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.32099254585583</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.66332433738195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.09083702530065</v>
+      </c>
+      <c r="Q2">
+        <v>12.52176101406772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.20007975903263</v>
+        <v>11.51897694521401</v>
       </c>
       <c r="C3">
-        <v>7.885244987995573</v>
+        <v>7.757634088547391</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.29805086461637</v>
+        <v>24.89742998129593</v>
       </c>
       <c r="F3">
-        <v>31.91424054229458</v>
+        <v>33.78078937445406</v>
       </c>
       <c r="G3">
-        <v>15.95302154106881</v>
+        <v>17.46588701569951</v>
       </c>
       <c r="H3">
-        <v>7.871680084225765</v>
+        <v>1.598068535146666</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.599370255347665</v>
       </c>
       <c r="J3">
-        <v>4.426738357534349</v>
+        <v>8.149239158319574</v>
       </c>
       <c r="K3">
-        <v>11.95657482771825</v>
+        <v>12.37510829201952</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.213245474827708</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.72193075965555</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.931042216041</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.17999046750613</v>
+      </c>
+      <c r="Q3">
+        <v>12.58241755131094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.63066198740517</v>
+        <v>11.01765480087242</v>
       </c>
       <c r="C4">
-        <v>7.685413497952474</v>
+        <v>7.53602584552586</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.30385368329733</v>
+        <v>23.91761053289666</v>
       </c>
       <c r="F4">
-        <v>31.02953090980542</v>
+        <v>32.79538337759634</v>
       </c>
       <c r="G4">
-        <v>16.16939409777609</v>
+        <v>17.42082760478338</v>
       </c>
       <c r="H4">
-        <v>7.97344056728533</v>
+        <v>1.682454285826086</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.530778969520858</v>
       </c>
       <c r="J4">
-        <v>4.466597353271803</v>
+        <v>8.18795392692317</v>
       </c>
       <c r="K4">
-        <v>11.52650717720402</v>
+        <v>12.46653376756276</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.165554597516947</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.33560561699505</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.10681230856116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.23695406211969</v>
+      </c>
+      <c r="Q4">
+        <v>12.62477049564365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.3909261102834</v>
+        <v>10.80104763875967</v>
       </c>
       <c r="C5">
-        <v>7.602552315998611</v>
+        <v>7.45150556346849</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.88949070917083</v>
+        <v>23.51046142403931</v>
       </c>
       <c r="F5">
-        <v>30.6691282383867</v>
+        <v>32.38330397784409</v>
       </c>
       <c r="G5">
-        <v>16.26481762074143</v>
+        <v>17.39645976256796</v>
       </c>
       <c r="H5">
-        <v>8.01602788664057</v>
+        <v>1.749344820728282</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.50308195964299</v>
       </c>
       <c r="J5">
-        <v>4.483191380413897</v>
+        <v>8.203052861341801</v>
       </c>
       <c r="K5">
-        <v>11.34635255004488</v>
+        <v>12.50158271714715</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.145384904355691</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.17368233824971</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.18116883544602</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.26115305958393</v>
+      </c>
+      <c r="Q5">
+        <v>12.64002679085463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.35065414865718</v>
+        <v>10.75874180161677</v>
       </c>
       <c r="C6">
-        <v>7.58870987294438</v>
+        <v>7.446194877940907</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.82013895987126</v>
+        <v>23.44650365482401</v>
       </c>
       <c r="F6">
-        <v>30.609306741058</v>
+        <v>32.31021803043756</v>
       </c>
       <c r="G6">
-        <v>16.28108429418182</v>
+        <v>17.38211195187344</v>
       </c>
       <c r="H6">
-        <v>8.023166419980718</v>
+        <v>1.76065146691607</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.499552383331307</v>
       </c>
       <c r="J6">
-        <v>4.485968076987978</v>
+        <v>8.204082557932608</v>
       </c>
       <c r="K6">
-        <v>11.31614539536829</v>
+        <v>12.50378238580233</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.141662995286915</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.1466063131147</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.19367682618221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.26573893330334</v>
+      </c>
+      <c r="Q6">
+        <v>12.63866967264855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.62745994849095</v>
+        <v>10.99905060284801</v>
       </c>
       <c r="C7">
-        <v>7.684301658616724</v>
+        <v>7.55861455820553</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23.29830234123732</v>
+        <v>23.92374128164971</v>
       </c>
       <c r="F7">
-        <v>31.02466919406059</v>
+        <v>32.77843756750057</v>
       </c>
       <c r="G7">
-        <v>16.17065239624684</v>
+        <v>17.39200014609752</v>
       </c>
       <c r="H7">
-        <v>7.974010413347132</v>
+        <v>1.683645932559548</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.533033147513875</v>
       </c>
       <c r="J7">
-        <v>4.466819721498651</v>
+        <v>8.184034023456297</v>
       </c>
       <c r="K7">
-        <v>11.52409724003492</v>
+        <v>12.45698239744231</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.164351178085559</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.33366811719715</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.1078042255722</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.23879576891563</v>
+      </c>
+      <c r="Q7">
+        <v>12.61415045018392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.78136064808516</v>
+        <v>12.00899133528847</v>
       </c>
       <c r="C8">
-        <v>8.093344824463703</v>
+        <v>8.019105120405277</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>25.32662744728549</v>
+        <v>25.91770133061789</v>
       </c>
       <c r="F8">
-        <v>32.85731202006237</v>
+        <v>34.79264409664864</v>
       </c>
       <c r="G8">
-        <v>15.7485377773964</v>
+        <v>17.48557782049833</v>
       </c>
       <c r="H8">
-        <v>7.766985221693321</v>
+        <v>1.759822040913634</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.673958942897941</v>
       </c>
       <c r="J8">
-        <v>4.385399723832685</v>
+        <v>8.104434915063239</v>
       </c>
       <c r="K8">
-        <v>12.39847662468318</v>
+        <v>12.26704510225584</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.261409567738724</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.11862145292731</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.75318301193434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.1233767030636</v>
+      </c>
+      <c r="Q8">
+        <v>12.52730071452235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.80097864042601</v>
+        <v>13.7774578286012</v>
       </c>
       <c r="C9">
-        <v>8.844191658058344</v>
+        <v>8.833730267470138</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>28.99600559892281</v>
+        <v>29.43752723087916</v>
       </c>
       <c r="F9">
-        <v>36.4206774429919</v>
+        <v>38.5073441630431</v>
       </c>
       <c r="G9">
-        <v>15.19582637113902</v>
+        <v>17.80648778930152</v>
       </c>
       <c r="H9">
-        <v>7.398396011761369</v>
+        <v>2.342920511920248</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.932759757896051</v>
       </c>
       <c r="J9">
-        <v>4.236669392019706</v>
+        <v>7.974260615770604</v>
       </c>
       <c r="K9">
-        <v>13.95241614465003</v>
+        <v>11.9385780033015</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.439473790058054</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.50765932473525</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.15511933662478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.91180190234554</v>
+      </c>
+      <c r="Q9">
+        <v>12.41899865535541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.13731193852259</v>
+        <v>14.91351360007594</v>
       </c>
       <c r="C10">
-        <v>9.360803030905169</v>
+        <v>9.388839710923152</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>31.49734255889347</v>
+        <v>31.33589769129837</v>
       </c>
       <c r="F10">
-        <v>39.00000568384522</v>
+        <v>40.67430431954767</v>
       </c>
       <c r="G10">
-        <v>14.99800380659772</v>
+        <v>18.00441132161211</v>
       </c>
       <c r="H10">
-        <v>7.152554347909784</v>
+        <v>2.723059565586765</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.113152914056359</v>
       </c>
       <c r="J10">
-        <v>4.133963570511899</v>
+        <v>7.877998928803611</v>
       </c>
       <c r="K10">
-        <v>14.99320071378971</v>
+        <v>11.69344712679428</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.534414905698201</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.41816890223376</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.78621659295857</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.77582035462639</v>
+      </c>
+      <c r="Q10">
+        <v>12.33276046552923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.71354505070361</v>
+        <v>15.2722059432695</v>
       </c>
       <c r="C11">
-        <v>9.587614757809169</v>
+        <v>9.483364997885944</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>32.59271567733693</v>
+        <v>28.23445978551956</v>
       </c>
       <c r="F11">
-        <v>40.16215620179251</v>
+        <v>38.31245954236898</v>
       </c>
       <c r="G11">
-        <v>14.96234662988038</v>
+        <v>17.34769869089281</v>
       </c>
       <c r="H11">
-        <v>7.04674034366951</v>
+        <v>3.373764374922851</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.172400303090719</v>
       </c>
       <c r="J11">
-        <v>4.088651793396921</v>
+        <v>7.735514148271931</v>
       </c>
       <c r="K11">
-        <v>15.44445344590693</v>
+        <v>11.43421790034088</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.409071595677163</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.67811940356638</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.63663331683349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.78526890533707</v>
+      </c>
+      <c r="Q11">
+        <v>12.01652642580579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.92722846673154</v>
+        <v>15.36336189471146</v>
       </c>
       <c r="C12">
-        <v>9.67228498911574</v>
+        <v>9.418521983012951</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>33.00142588153051</v>
+        <v>25.19218920676917</v>
       </c>
       <c r="F12">
-        <v>40.60047355912407</v>
+        <v>35.85683970678603</v>
       </c>
       <c r="G12">
-        <v>14.95740686540084</v>
+        <v>16.77805265219028</v>
       </c>
       <c r="H12">
-        <v>7.007599193324704</v>
+        <v>4.465376692970212</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.181930285147363</v>
       </c>
       <c r="J12">
-        <v>4.071695784159849</v>
+        <v>7.639063570713887</v>
       </c>
       <c r="K12">
-        <v>15.61212598780187</v>
+        <v>11.28111671404307</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.383325610503836</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.71160859790802</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.58289581997111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.82110569996246</v>
+      </c>
+      <c r="Q12">
+        <v>11.77801882939378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.88140856023054</v>
+        <v>15.23931216665527</v>
       </c>
       <c r="C13">
-        <v>9.654104478931387</v>
+        <v>9.256757881141473</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>32.91367254160762</v>
+        <v>21.94180073642832</v>
       </c>
       <c r="F13">
-        <v>40.50615424594627</v>
+        <v>33.10817085979076</v>
       </c>
       <c r="G13">
-        <v>14.95807820369724</v>
+        <v>16.19375416562373</v>
       </c>
       <c r="H13">
-        <v>7.015986547497281</v>
+        <v>5.688823183487813</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.158215358653215</v>
       </c>
       <c r="J13">
-        <v>4.075338549905141</v>
+        <v>7.5658820758512</v>
       </c>
       <c r="K13">
-        <v>15.57615745854143</v>
+        <v>11.18512365433009</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.429259032050138</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.57470917483415</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.59433499566776</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>11.88002137021595</v>
+      </c>
+      <c r="Q13">
+        <v>11.56816673076856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.73121537778203</v>
+        <v>15.04995404714981</v>
       </c>
       <c r="C14">
-        <v>9.594605247494563</v>
+        <v>9.104494122739338</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>32.62646214050341</v>
+        <v>19.54233651598232</v>
       </c>
       <c r="F14">
-        <v>40.19825282335444</v>
+        <v>31.02463011419119</v>
       </c>
       <c r="G14">
-        <v>14.96176440451074</v>
+        <v>15.77169935244108</v>
       </c>
       <c r="H14">
-        <v>7.043501178116192</v>
+        <v>6.590933393906075</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.127747547818072</v>
       </c>
       <c r="J14">
-        <v>4.087252750909353</v>
+        <v>7.524472058307731</v>
       </c>
       <c r="K14">
-        <v>15.45831228610711</v>
+        <v>11.14214010273312</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.504357379037604</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.40042855380293</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.63215230136478</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>11.93194491699338</v>
+      </c>
+      <c r="Q14">
+        <v>11.43261319350932</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.63862961959861</v>
+        <v>14.95211774232652</v>
       </c>
       <c r="C15">
-        <v>9.558000529552036</v>
+        <v>9.053909185604397</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>32.4497466856668</v>
+        <v>18.91048092833352</v>
       </c>
       <c r="F15">
-        <v>40.00942120709549</v>
+        <v>30.44915311997067</v>
       </c>
       <c r="G15">
-        <v>14.96515933318067</v>
+        <v>15.65847663080888</v>
       </c>
       <c r="H15">
-        <v>7.060477608247615</v>
+        <v>6.796742714244755</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.114461711032006</v>
       </c>
       <c r="J15">
-        <v>4.09457693121669</v>
+        <v>7.518439105840208</v>
       </c>
       <c r="K15">
-        <v>15.38571081520409</v>
+        <v>11.14105081648375</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.524281733174197</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.32092963770377</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.65570401713284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.95004118271674</v>
+      </c>
+      <c r="Q15">
+        <v>11.40318730817446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.09901894497811</v>
+        <v>14.49772622243732</v>
       </c>
       <c r="C16">
-        <v>9.345811825580084</v>
+        <v>8.86124717889213</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>31.42490358616182</v>
+        <v>18.54839811635646</v>
       </c>
       <c r="F16">
-        <v>38.92381640737412</v>
+        <v>29.93805360692699</v>
       </c>
       <c r="G16">
-        <v>15.00149192516417</v>
+        <v>15.6651623800672</v>
       </c>
       <c r="H16">
-        <v>7.159595812855003</v>
+        <v>6.52232957550209</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.045059440120121</v>
       </c>
       <c r="J16">
-        <v>4.136953142865349</v>
+        <v>7.571829934794787</v>
       </c>
       <c r="K16">
-        <v>14.96326203209017</v>
+        <v>11.25995811155723</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.469262368420627</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.96700331800781</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.79638267071408</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.99006988395764</v>
+      </c>
+      <c r="Q16">
+        <v>11.4760154023236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.7598936024969</v>
+        <v>14.24624586779142</v>
       </c>
       <c r="C17">
-        <v>9.21351060459339</v>
+        <v>8.795836626568418</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>30.78531719407309</v>
+        <v>19.59931790449676</v>
       </c>
       <c r="F17">
-        <v>38.25483412436176</v>
+        <v>30.68994116822406</v>
       </c>
       <c r="G17">
-        <v>15.03823542847234</v>
+        <v>15.89666294552651</v>
       </c>
       <c r="H17">
-        <v>7.221985058346759</v>
+        <v>5.781112179616074</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.007982073077392</v>
       </c>
       <c r="J17">
-        <v>4.163310343494786</v>
+        <v>7.634824972813075</v>
       </c>
       <c r="K17">
-        <v>14.69840285716797</v>
+        <v>11.37348159242775</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.378832607002723</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.78675036560298</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.88754634308112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>11.99466548542686</v>
+      </c>
+      <c r="Q17">
+        <v>11.60375372615758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.56185439140335</v>
+        <v>14.1591551843744</v>
       </c>
       <c r="C18">
-        <v>9.136644707200102</v>
+        <v>8.818359576934871</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>30.41343958841759</v>
+        <v>22.0056796380957</v>
       </c>
       <c r="F18">
-        <v>37.86900399278223</v>
+        <v>32.62980083986886</v>
       </c>
       <c r="G18">
-        <v>15.06443897001495</v>
+        <v>16.36282515830592</v>
       </c>
       <c r="H18">
-        <v>7.258432079961513</v>
+        <v>4.601242729099406</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.991822425684136</v>
       </c>
       <c r="J18">
-        <v>4.178602962932374</v>
+        <v>7.715170891071161</v>
       </c>
       <c r="K18">
-        <v>14.54397292972421</v>
+        <v>11.50203190500512</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.294457183412702</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.74066884986457</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.94167838537719</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.96764442675457</v>
+      </c>
+      <c r="Q18">
+        <v>11.79890882134098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.49428848559381</v>
+        <v>14.18931648923432</v>
       </c>
       <c r="C19">
-        <v>9.110488372381845</v>
+        <v>8.949796381133455</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>30.28684029747097</v>
+        <v>25.32701679989554</v>
       </c>
       <c r="F19">
-        <v>37.73819411664568</v>
+        <v>35.34972735687547</v>
       </c>
       <c r="G19">
-        <v>15.07415863251204</v>
+        <v>16.93255161124278</v>
       </c>
       <c r="H19">
-        <v>7.270867258768473</v>
+        <v>3.337820804616157</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.003048690484275</v>
       </c>
       <c r="J19">
-        <v>4.183803577885967</v>
+        <v>7.796111524604737</v>
       </c>
       <c r="K19">
-        <v>14.4913272539297</v>
+        <v>11.61802693785089</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.293341755687366</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.80794381326305</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.96028991166191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.92314451171407</v>
+      </c>
+      <c r="Q19">
+        <v>12.01516526141835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.79630262646592</v>
+        <v>14.5860423595402</v>
       </c>
       <c r="C20">
-        <v>9.22767427257255</v>
+        <v>9.307210183418292</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>30.85381663223831</v>
+        <v>30.85655502027777</v>
       </c>
       <c r="F20">
-        <v>38.32615834611615</v>
+        <v>40.06869456039892</v>
       </c>
       <c r="G20">
-        <v>15.03379383838311</v>
+        <v>17.86008176070712</v>
       </c>
       <c r="H20">
-        <v>7.215284991285967</v>
+        <v>2.621919344770604</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.075906943401108</v>
       </c>
       <c r="J20">
-        <v>4.160490847998712</v>
+        <v>7.889253579161203</v>
       </c>
       <c r="K20">
-        <v>14.72681400190592</v>
+        <v>11.72476341475817</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.506111000456064</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.1853946810772</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.87766421405844</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.81768939693094</v>
+      </c>
+      <c r="Q20">
+        <v>12.31870081507183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.77545325285107</v>
+        <v>15.44261093002186</v>
       </c>
       <c r="C21">
-        <v>9.612114959553923</v>
+        <v>9.739538767551993</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>32.71098749241497</v>
+        <v>32.94877199466939</v>
       </c>
       <c r="F21">
-        <v>40.28873969292788</v>
+        <v>42.27774855671767</v>
       </c>
       <c r="G21">
-        <v>14.96044341943021</v>
+        <v>18.17856196713688</v>
       </c>
       <c r="H21">
-        <v>7.035393720598941</v>
+        <v>2.942815543447665</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.214769393893559</v>
       </c>
       <c r="J21">
-        <v>4.083747761354651</v>
+        <v>7.838988331019153</v>
       </c>
       <c r="K21">
-        <v>15.493013371015</v>
+        <v>11.57303270637559</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.619667178720104</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.87792342946748</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.62096312696176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.7052654377933</v>
+      </c>
+      <c r="Q21">
+        <v>12.31707280918689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.38903593792392</v>
+        <v>15.98420965469708</v>
       </c>
       <c r="C22">
-        <v>9.856254150026018</v>
+        <v>9.980477390759173</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>33.90916677797583</v>
+        <v>34.02455595299593</v>
       </c>
       <c r="F22">
-        <v>41.56109553480213</v>
+        <v>43.49938437846873</v>
       </c>
       <c r="G22">
-        <v>14.96274306784676</v>
+        <v>18.39057710657319</v>
       </c>
       <c r="H22">
-        <v>6.923271938551637</v>
+        <v>3.136148120991459</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.298740617286901</v>
       </c>
       <c r="J22">
-        <v>4.034772894344084</v>
+        <v>7.808462389284644</v>
       </c>
       <c r="K22">
-        <v>15.97507595761055</v>
+        <v>11.48250240685821</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.679528188955964</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.30453430658202</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10.47029144706921</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.63454708339175</v>
+      </c>
+      <c r="Q22">
+        <v>12.32058599130523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.06395472303078</v>
+        <v>15.71108394400071</v>
       </c>
       <c r="C23">
-        <v>9.726614596600022</v>
+        <v>9.829737801960745</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>33.26365062369748</v>
+        <v>33.44426183343055</v>
       </c>
       <c r="F23">
-        <v>40.88299141230607</v>
+        <v>42.86106456495899</v>
       </c>
       <c r="G23">
-        <v>14.95667791486736</v>
+        <v>18.30772959830736</v>
       </c>
       <c r="H23">
-        <v>6.982591594283567</v>
+        <v>3.033597864469908</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.250280846873034</v>
       </c>
       <c r="J23">
-        <v>4.060803502143264</v>
+        <v>7.829331919798886</v>
       </c>
       <c r="K23">
-        <v>15.71950259245423</v>
+        <v>11.54241066500742</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.648660721848056</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.0782280056848</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.5490405092211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.66938958734093</v>
+      </c>
+      <c r="Q23">
+        <v>12.33069513591657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.7798516761439</v>
+        <v>14.60403454000596</v>
       </c>
       <c r="C24">
-        <v>9.221273379970635</v>
+        <v>9.280576625207122</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>30.82286102916269</v>
+        <v>31.17554584981486</v>
       </c>
       <c r="F24">
-        <v>38.29391646333082</v>
+        <v>40.35699313603203</v>
       </c>
       <c r="G24">
-        <v>15.03578611788778</v>
+        <v>17.96955872010033</v>
       </c>
       <c r="H24">
-        <v>7.21831229395223</v>
+        <v>2.636429281698611</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.069663315737048</v>
       </c>
       <c r="J24">
-        <v>4.16176510734089</v>
+        <v>7.90603931382913</v>
       </c>
       <c r="K24">
-        <v>14.71397604656648</v>
+        <v>11.75774094315946</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.527593707036424</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.18602390745776</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.8821265857001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.81012728465843</v>
+      </c>
+      <c r="Q24">
+        <v>12.36228334954607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.28060458572027</v>
+        <v>13.30057605330739</v>
       </c>
       <c r="C25">
-        <v>8.646986138542816</v>
+        <v>8.657292094376706</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>28.0372415574957</v>
+        <v>28.54345391958374</v>
       </c>
       <c r="F25">
-        <v>35.46228582190881</v>
+        <v>37.51375144779331</v>
       </c>
       <c r="G25">
-        <v>15.31182235452061</v>
+        <v>17.65972922974521</v>
       </c>
       <c r="H25">
-        <v>7.493905445760681</v>
+        <v>2.189269999807172</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.869135220113679</v>
       </c>
       <c r="J25">
-        <v>4.275745741226859</v>
+        <v>8.000002755873036</v>
       </c>
       <c r="K25">
-        <v>13.54960135139106</v>
+        <v>12.00644224730019</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.391185907369155</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.14868696308991</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.3054293314976</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.97061321724721</v>
+      </c>
+      <c r="Q25">
+        <v>12.42397259552446</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.28679401237423</v>
+        <v>12.20305988273686</v>
       </c>
       <c r="C2">
-        <v>8.109066460737251</v>
+        <v>8.116438548808173</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>26.41814288001181</v>
+        <v>26.52437928449512</v>
       </c>
       <c r="F2">
-        <v>35.33704792758001</v>
+        <v>35.23955083080088</v>
       </c>
       <c r="G2">
-        <v>17.55632961513957</v>
+        <v>16.51146431421684</v>
       </c>
       <c r="H2">
-        <v>1.843728857354916</v>
+        <v>1.847648153300255</v>
       </c>
       <c r="I2">
-        <v>2.708118270931985</v>
+        <v>2.75493524373476</v>
       </c>
       <c r="J2">
-        <v>8.089878954096848</v>
+        <v>8.518341229652531</v>
       </c>
       <c r="K2">
-        <v>12.23144150974505</v>
+        <v>12.02017872390807</v>
       </c>
       <c r="L2">
-        <v>5.288019243275052</v>
+        <v>10.71312794743695</v>
       </c>
       <c r="M2">
-        <v>11.32099254585583</v>
+        <v>7.04184152407511</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.277033743176935</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.31781135238973</v>
       </c>
       <c r="P2">
-        <v>12.09083702530065</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.52176101406772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.0687242060719</v>
+      </c>
+      <c r="S2">
+        <v>12.39065616170936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.51897694521401</v>
+        <v>11.47549880569045</v>
       </c>
       <c r="C3">
-        <v>7.757634088547391</v>
+        <v>7.690852852497041</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.89742998129593</v>
+        <v>24.98660093564587</v>
       </c>
       <c r="F3">
-        <v>33.78078937445406</v>
+        <v>33.70532858615508</v>
       </c>
       <c r="G3">
-        <v>17.46588701569951</v>
+        <v>16.47742071728052</v>
       </c>
       <c r="H3">
-        <v>1.598068535146666</v>
+        <v>1.605243258172924</v>
       </c>
       <c r="I3">
-        <v>2.599370255347665</v>
+        <v>2.657856145085187</v>
       </c>
       <c r="J3">
-        <v>8.149239158319574</v>
+        <v>8.553746183220511</v>
       </c>
       <c r="K3">
-        <v>12.37510829201952</v>
+        <v>12.16682749922098</v>
       </c>
       <c r="L3">
-        <v>5.213245474827708</v>
+        <v>10.88180008334256</v>
       </c>
       <c r="M3">
-        <v>10.72193075965555</v>
+        <v>7.131441991362403</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.203054452005206</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.72115419452575</v>
       </c>
       <c r="P3">
-        <v>12.17999046750613</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.58241755131094</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.14363878692652</v>
+      </c>
+      <c r="S3">
+        <v>12.46234682943315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.01765480087242</v>
+        <v>11.0005463593608</v>
       </c>
       <c r="C4">
-        <v>7.53602584552586</v>
+        <v>7.421691748477727</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.91761053289666</v>
+        <v>23.99613555754231</v>
       </c>
       <c r="F4">
-        <v>32.79538337759634</v>
+        <v>32.73360711564517</v>
       </c>
       <c r="G4">
-        <v>17.42082760478338</v>
+        <v>16.46769665459097</v>
       </c>
       <c r="H4">
-        <v>1.682454285826086</v>
+        <v>1.672999214092877</v>
       </c>
       <c r="I4">
-        <v>2.530778969520858</v>
+        <v>2.596770071955592</v>
       </c>
       <c r="J4">
-        <v>8.18795392692317</v>
+        <v>8.576498490356691</v>
       </c>
       <c r="K4">
-        <v>12.46653376756276</v>
+        <v>12.25921216323089</v>
       </c>
       <c r="L4">
-        <v>5.165554597516947</v>
+        <v>10.99049046991549</v>
       </c>
       <c r="M4">
-        <v>10.33560561699505</v>
+        <v>7.203973712421889</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.155826191624961</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.33642235468857</v>
       </c>
       <c r="P4">
-        <v>12.23695406211969</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.62477049564365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.19209944201574</v>
+      </c>
+      <c r="S4">
+        <v>12.51049570498724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.80104763875967</v>
+        <v>10.79512277765743</v>
       </c>
       <c r="C5">
-        <v>7.45150556346849</v>
+        <v>7.317732303944574</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23.51046142403931</v>
+        <v>23.58463971558111</v>
       </c>
       <c r="F5">
-        <v>32.38330397784409</v>
+        <v>32.32711219287862</v>
       </c>
       <c r="G5">
-        <v>17.39645976256796</v>
+        <v>16.45762032238983</v>
       </c>
       <c r="H5">
-        <v>1.749344820728282</v>
+        <v>1.739016072361923</v>
       </c>
       <c r="I5">
-        <v>2.50308195964299</v>
+        <v>2.572478531282663</v>
       </c>
       <c r="J5">
-        <v>8.203052861341801</v>
+        <v>8.584766586243049</v>
       </c>
       <c r="K5">
-        <v>12.50158271714715</v>
+        <v>12.29446711901936</v>
       </c>
       <c r="L5">
-        <v>5.145384904355691</v>
+        <v>11.03284948643063</v>
       </c>
       <c r="M5">
-        <v>10.17368233824971</v>
+        <v>7.236751608997875</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.135837960812188</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.17518672366154</v>
       </c>
       <c r="P5">
-        <v>12.26115305958393</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.64002679085463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.2129167638952</v>
+      </c>
+      <c r="S5">
+        <v>12.5278682316942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.75874180161677</v>
+        <v>10.75471781564968</v>
       </c>
       <c r="C6">
-        <v>7.446194877940907</v>
+        <v>7.309671880437858</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23.44650365482401</v>
+        <v>23.51997958067448</v>
       </c>
       <c r="F6">
-        <v>32.31021803043756</v>
+        <v>32.25493631425861</v>
       </c>
       <c r="G6">
-        <v>17.38211195187344</v>
+        <v>16.44536385582719</v>
       </c>
       <c r="H6">
-        <v>1.76065146691607</v>
+        <v>1.750173791572359</v>
       </c>
       <c r="I6">
-        <v>2.499552383331307</v>
+        <v>2.569877336345739</v>
       </c>
       <c r="J6">
-        <v>8.204082557932608</v>
+        <v>8.584620485163619</v>
       </c>
       <c r="K6">
-        <v>12.50378238580233</v>
+        <v>12.29672267740177</v>
       </c>
       <c r="L6">
-        <v>5.141662995286915</v>
+        <v>11.03604133697909</v>
       </c>
       <c r="M6">
-        <v>10.1466063131147</v>
+        <v>7.241117698630156</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.132145214969251</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.14823340738213</v>
       </c>
       <c r="P6">
-        <v>12.26573893330334</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.63866967264855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.21697637643802</v>
+      </c>
+      <c r="S6">
+        <v>12.52684157361265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.99905060284801</v>
+        <v>10.97941712286234</v>
       </c>
       <c r="C7">
-        <v>7.55861455820553</v>
+        <v>7.439530099081298</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23.92374128164971</v>
+        <v>24.00972550661967</v>
       </c>
       <c r="F7">
-        <v>32.77843756750057</v>
+        <v>32.70925176517524</v>
       </c>
       <c r="G7">
-        <v>17.39200014609752</v>
+        <v>16.51080054209537</v>
       </c>
       <c r="H7">
-        <v>1.683645932559548</v>
+        <v>1.674416978611069</v>
       </c>
       <c r="I7">
-        <v>2.533033147513875</v>
+        <v>2.599559002190552</v>
       </c>
       <c r="J7">
-        <v>8.184034023456297</v>
+        <v>8.546080182815103</v>
       </c>
       <c r="K7">
-        <v>12.45698239744231</v>
+        <v>12.24637668649746</v>
       </c>
       <c r="L7">
-        <v>5.164351178085559</v>
+        <v>10.97711451775426</v>
       </c>
       <c r="M7">
-        <v>10.33366811719715</v>
+        <v>7.198892185321773</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.154045645604877</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.33072564552507</v>
       </c>
       <c r="P7">
-        <v>12.23879576891563</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.61415045018392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.19481124865003</v>
+      </c>
+      <c r="S7">
+        <v>12.49321252623042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.00899133528847</v>
+        <v>11.93046826760671</v>
       </c>
       <c r="C8">
-        <v>8.019105120405277</v>
+        <v>7.984615855693907</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>25.91770133061789</v>
+        <v>26.04127482873655</v>
       </c>
       <c r="F8">
-        <v>34.79264409664864</v>
+        <v>34.67928725118779</v>
       </c>
       <c r="G8">
-        <v>17.48557782049833</v>
+        <v>16.70057365304359</v>
       </c>
       <c r="H8">
-        <v>1.759822040913634</v>
+        <v>1.764127425167318</v>
       </c>
       <c r="I8">
-        <v>2.673958942897941</v>
+        <v>2.724557943164738</v>
       </c>
       <c r="J8">
-        <v>8.104434915063239</v>
+        <v>8.439448634877998</v>
       </c>
       <c r="K8">
-        <v>12.26704510225584</v>
+        <v>12.04617643878773</v>
       </c>
       <c r="L8">
-        <v>5.261409567738724</v>
+        <v>10.74775924026692</v>
       </c>
       <c r="M8">
-        <v>11.11862145292731</v>
+        <v>7.055087340946098</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.248848889643225</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.10447128606194</v>
       </c>
       <c r="P8">
-        <v>12.1233767030636</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.52730071452235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.09954292620827</v>
+      </c>
+      <c r="S8">
+        <v>12.37812856907722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.7774578286012</v>
+        <v>13.6061899365318</v>
       </c>
       <c r="C9">
-        <v>8.833730267470138</v>
+        <v>8.967342860769028</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>29.43752723087916</v>
+        <v>29.6052702270383</v>
       </c>
       <c r="F9">
-        <v>38.5073441630431</v>
+        <v>38.33672680728824</v>
       </c>
       <c r="G9">
-        <v>17.80648778930152</v>
+        <v>16.95010308774429</v>
       </c>
       <c r="H9">
-        <v>2.342920511920248</v>
+        <v>2.339256209201711</v>
       </c>
       <c r="I9">
-        <v>2.932759757896051</v>
+        <v>2.95488603802992</v>
       </c>
       <c r="J9">
-        <v>7.974260615770604</v>
+        <v>8.338075832972661</v>
       </c>
       <c r="K9">
-        <v>11.9385780033015</v>
+        <v>11.70200163280254</v>
       </c>
       <c r="L9">
-        <v>5.439473790058054</v>
+        <v>10.36763860496008</v>
       </c>
       <c r="M9">
-        <v>12.50765932473525</v>
+        <v>6.931589922866094</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.424407199975202</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.48621580385077</v>
       </c>
       <c r="P9">
-        <v>11.91180190234554</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.41899865535541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>11.92629913104505</v>
+      </c>
+      <c r="S9">
+        <v>12.23050763566479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.91351360007594</v>
+        <v>14.67149362848657</v>
       </c>
       <c r="C10">
-        <v>9.388839710923152</v>
+        <v>9.603056321732719</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>31.33589769129837</v>
+        <v>31.56644804168723</v>
       </c>
       <c r="F10">
-        <v>40.67430431954767</v>
+        <v>40.43005015477571</v>
       </c>
       <c r="G10">
-        <v>18.00441132161211</v>
+        <v>17.52206826377013</v>
       </c>
       <c r="H10">
-        <v>2.723059565586765</v>
+        <v>2.712825190618398</v>
       </c>
       <c r="I10">
-        <v>3.113152914056359</v>
+        <v>3.114913285170087</v>
       </c>
       <c r="J10">
-        <v>7.877998928803611</v>
+        <v>8.117880736025533</v>
       </c>
       <c r="K10">
-        <v>11.69344712679428</v>
+        <v>11.42406868031634</v>
       </c>
       <c r="L10">
-        <v>5.534414905698201</v>
+        <v>10.08939372841769</v>
       </c>
       <c r="M10">
-        <v>13.41816890223376</v>
+        <v>6.896361787637321</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.515603636500156</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.37419748749607</v>
       </c>
       <c r="P10">
-        <v>11.77582035462639</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.33276046552923</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.82695619963408</v>
+      </c>
+      <c r="S10">
+        <v>12.07399881990387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.2722059432695</v>
+        <v>14.99713644204149</v>
       </c>
       <c r="C11">
-        <v>9.483364997885944</v>
+        <v>9.651471375740694</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>28.23445978551956</v>
+        <v>28.53509828950376</v>
       </c>
       <c r="F11">
-        <v>38.31245954236898</v>
+        <v>37.99240407477338</v>
       </c>
       <c r="G11">
-        <v>17.34769869089281</v>
+        <v>17.77816807594081</v>
       </c>
       <c r="H11">
-        <v>3.373764374922851</v>
+        <v>3.362857698815443</v>
       </c>
       <c r="I11">
-        <v>3.172400303090719</v>
+        <v>3.166706836478249</v>
       </c>
       <c r="J11">
-        <v>7.735514148271931</v>
+        <v>7.754100093853249</v>
       </c>
       <c r="K11">
-        <v>11.43421790034088</v>
+        <v>11.14501920727455</v>
       </c>
       <c r="L11">
-        <v>5.409071595677163</v>
+        <v>9.874626158392138</v>
       </c>
       <c r="M11">
-        <v>13.67811940356638</v>
+        <v>6.738918787494367</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.397929799382246</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.59463669119105</v>
       </c>
       <c r="P11">
-        <v>11.78526890533707</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.01652642580579</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>11.86871564012005</v>
+      </c>
+      <c r="S11">
+        <v>11.68525650919378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.36336189471146</v>
+        <v>15.08218319648123</v>
       </c>
       <c r="C12">
-        <v>9.418521983012951</v>
+        <v>9.546876693361751</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>25.19218920676917</v>
+        <v>25.51674706745612</v>
       </c>
       <c r="F12">
-        <v>35.85683970678603</v>
+        <v>35.51049982252483</v>
       </c>
       <c r="G12">
-        <v>16.77805265219028</v>
+        <v>17.63753036486559</v>
       </c>
       <c r="H12">
-        <v>4.465376692970212</v>
+        <v>4.456798086701128</v>
       </c>
       <c r="I12">
-        <v>3.181930285147363</v>
+        <v>3.173408768094026</v>
       </c>
       <c r="J12">
-        <v>7.639063570713887</v>
+        <v>7.60360441350655</v>
       </c>
       <c r="K12">
-        <v>11.28111671404307</v>
+        <v>10.99560400287638</v>
       </c>
       <c r="L12">
-        <v>5.383325610503836</v>
+        <v>9.773110185195955</v>
       </c>
       <c r="M12">
-        <v>13.71160859790802</v>
+        <v>6.62890070634824</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.38409874885806</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.60992347821877</v>
       </c>
       <c r="P12">
-        <v>11.82110569996246</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.77801882939378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>11.9200428875757</v>
+      </c>
+      <c r="S12">
+        <v>11.42728775192714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.23931216665527</v>
+        <v>14.97748826246207</v>
       </c>
       <c r="C13">
-        <v>9.256757881141473</v>
+        <v>9.359889701653191</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.94180073642832</v>
+        <v>22.24223191707407</v>
       </c>
       <c r="F13">
-        <v>33.10817085979076</v>
+        <v>32.78621492696591</v>
       </c>
       <c r="G13">
-        <v>16.19375416562373</v>
+        <v>16.93906830460872</v>
       </c>
       <c r="H13">
-        <v>5.688823183487813</v>
+        <v>5.682866844544239</v>
       </c>
       <c r="I13">
-        <v>3.158215358653215</v>
+        <v>3.152382540086127</v>
       </c>
       <c r="J13">
-        <v>7.5658820758512</v>
+        <v>7.590839081052062</v>
       </c>
       <c r="K13">
-        <v>11.18512365433009</v>
+        <v>10.92719456659359</v>
       </c>
       <c r="L13">
-        <v>5.429259032050138</v>
+        <v>9.735260379031812</v>
       </c>
       <c r="M13">
-        <v>13.57470917483415</v>
+        <v>6.545288843101896</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.441597873736477</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.47728178832517</v>
       </c>
       <c r="P13">
-        <v>11.88002137021595</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.56816673076856</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>11.97682244998762</v>
+      </c>
+      <c r="S13">
+        <v>11.25172659302304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.04995404714981</v>
+        <v>14.8132688007055</v>
       </c>
       <c r="C14">
-        <v>9.104494122739338</v>
+        <v>9.195800397111558</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.54233651598232</v>
+        <v>19.80455701196942</v>
       </c>
       <c r="F14">
-        <v>31.02463011419119</v>
+        <v>30.74190411945782</v>
       </c>
       <c r="G14">
-        <v>15.77169935244108</v>
+        <v>16.20484709277769</v>
       </c>
       <c r="H14">
-        <v>6.590933393906075</v>
+        <v>6.58659431764791</v>
       </c>
       <c r="I14">
-        <v>3.127747547818072</v>
+        <v>3.126599107313951</v>
       </c>
       <c r="J14">
-        <v>7.524472058307731</v>
+        <v>7.632438200027422</v>
       </c>
       <c r="K14">
-        <v>11.14214010273312</v>
+        <v>10.91218851630699</v>
       </c>
       <c r="L14">
-        <v>5.504357379037604</v>
+        <v>9.732725582462983</v>
       </c>
       <c r="M14">
-        <v>13.40042855380293</v>
+        <v>6.498382770580016</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.522288679633486</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.31588886489247</v>
       </c>
       <c r="P14">
-        <v>11.93194491699338</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.43261319350932</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.01882045369933</v>
+      </c>
+      <c r="S14">
+        <v>11.16161419346463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.95211774232652</v>
+        <v>14.72672146788374</v>
       </c>
       <c r="C15">
-        <v>9.053909185604397</v>
+        <v>9.144730922805925</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.91048092833352</v>
+        <v>19.15471725259573</v>
       </c>
       <c r="F15">
-        <v>30.44915311997067</v>
+        <v>30.18537598704619</v>
       </c>
       <c r="G15">
-        <v>15.65847663080888</v>
+        <v>15.9189148553468</v>
       </c>
       <c r="H15">
-        <v>6.796742714244755</v>
+        <v>6.792890263899156</v>
       </c>
       <c r="I15">
-        <v>3.114461711032006</v>
+        <v>3.116113874615701</v>
       </c>
       <c r="J15">
-        <v>7.518439105840208</v>
+        <v>7.665697307478876</v>
       </c>
       <c r="K15">
-        <v>11.14105081648375</v>
+        <v>10.92170343104166</v>
       </c>
       <c r="L15">
-        <v>5.524281733174197</v>
+        <v>9.741850199914463</v>
       </c>
       <c r="M15">
-        <v>13.32092963770377</v>
+        <v>6.490592388199895</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.542572480611098</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.24382409737773</v>
       </c>
       <c r="P15">
-        <v>11.95004118271674</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.40318730817446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.03090479717001</v>
+      </c>
+      <c r="S15">
+        <v>11.15228374205719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.49772622243732</v>
+        <v>14.31761203756938</v>
       </c>
       <c r="C16">
-        <v>8.86124717889213</v>
+        <v>8.965273334997512</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>18.54839811635646</v>
+        <v>18.72141559855877</v>
       </c>
       <c r="F16">
-        <v>29.93805360692699</v>
+        <v>29.75301043758088</v>
       </c>
       <c r="G16">
-        <v>15.6651623800672</v>
+        <v>15.15242243758085</v>
       </c>
       <c r="H16">
-        <v>6.52232957550209</v>
+        <v>6.519903137518648</v>
       </c>
       <c r="I16">
-        <v>3.045059440120121</v>
+        <v>3.058193610946538</v>
       </c>
       <c r="J16">
-        <v>7.571829934794787</v>
+        <v>7.895950633821064</v>
       </c>
       <c r="K16">
-        <v>11.25995811155723</v>
+        <v>11.06998887262354</v>
       </c>
       <c r="L16">
-        <v>5.469262368420627</v>
+        <v>9.852457622039418</v>
       </c>
       <c r="M16">
-        <v>12.96700331800781</v>
+        <v>6.548704776509343</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.481215070627927</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.92574651649227</v>
       </c>
       <c r="P16">
-        <v>11.99006988395764</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.4760154023236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.03999476391707</v>
+      </c>
+      <c r="S16">
+        <v>11.29956060478101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.24624586779142</v>
+        <v>14.08416721590152</v>
       </c>
       <c r="C17">
-        <v>8.795836626568418</v>
+        <v>8.909438474378501</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.59931790449676</v>
+        <v>19.7458330209186</v>
       </c>
       <c r="F17">
-        <v>30.68994116822406</v>
+        <v>30.53582994139386</v>
       </c>
       <c r="G17">
-        <v>15.89666294552651</v>
+        <v>15.0671601418187</v>
       </c>
       <c r="H17">
-        <v>5.781112179616074</v>
+        <v>5.779170696537526</v>
       </c>
       <c r="I17">
-        <v>3.007982073077392</v>
+        <v>3.027086102284273</v>
       </c>
       <c r="J17">
-        <v>7.634824972813075</v>
+        <v>8.04111485013323</v>
       </c>
       <c r="K17">
-        <v>11.37348159242775</v>
+        <v>11.1891848384087</v>
       </c>
       <c r="L17">
-        <v>5.378832607002723</v>
+        <v>9.9431553649982</v>
       </c>
       <c r="M17">
-        <v>12.78675036560298</v>
+        <v>6.61289478824278</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.385762358151664</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.76147864590156</v>
       </c>
       <c r="P17">
-        <v>11.99466548542686</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.60375372615758</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.02981046755656</v>
+      </c>
+      <c r="S17">
+        <v>11.45304591519245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.1591551843744</v>
+        <v>13.99765659211539</v>
       </c>
       <c r="C18">
-        <v>8.818359576934871</v>
+        <v>8.949127224467016</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>22.0056796380957</v>
+        <v>22.14792565698688</v>
       </c>
       <c r="F18">
-        <v>32.62980083986886</v>
+        <v>32.48206050822716</v>
       </c>
       <c r="G18">
-        <v>16.36282515830592</v>
+        <v>15.39572893827885</v>
       </c>
       <c r="H18">
-        <v>4.601242729099406</v>
+        <v>4.599097464096126</v>
       </c>
       <c r="I18">
-        <v>2.991822425684136</v>
+        <v>3.012090853820313</v>
       </c>
       <c r="J18">
-        <v>7.715170891071161</v>
+        <v>8.153281203470828</v>
       </c>
       <c r="K18">
-        <v>11.50203190500512</v>
+        <v>11.30994542042223</v>
       </c>
       <c r="L18">
-        <v>5.294457183412702</v>
+        <v>10.03504975030472</v>
       </c>
       <c r="M18">
-        <v>12.74066884986457</v>
+        <v>6.696181194711122</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.29615030656926</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.72233924722091</v>
       </c>
       <c r="P18">
-        <v>11.96764442675457</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.79890882134098</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>11.99601426443896</v>
+      </c>
+      <c r="S18">
+        <v>11.64961737629641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.18931648923432</v>
+        <v>14.01625469200208</v>
       </c>
       <c r="C19">
-        <v>8.949796381133455</v>
+        <v>9.108662200722325</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>25.32701679989554</v>
+        <v>25.47770146053316</v>
       </c>
       <c r="F19">
-        <v>35.34972735687547</v>
+        <v>35.19363012928248</v>
       </c>
       <c r="G19">
-        <v>16.93255161124278</v>
+        <v>15.91331659288291</v>
       </c>
       <c r="H19">
-        <v>3.337820804616157</v>
+        <v>3.334518292809813</v>
       </c>
       <c r="I19">
-        <v>3.003048690484275</v>
+        <v>3.0230353611541</v>
       </c>
       <c r="J19">
-        <v>7.796111524604737</v>
+        <v>8.238228358364147</v>
       </c>
       <c r="K19">
-        <v>11.61802693785089</v>
+        <v>11.41102573960973</v>
       </c>
       <c r="L19">
-        <v>5.293341755687366</v>
+        <v>10.11191966748128</v>
       </c>
       <c r="M19">
-        <v>12.80794381326305</v>
+        <v>6.776541202341845</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.288932317627697</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.79150577776304</v>
       </c>
       <c r="P19">
-        <v>11.92314451171407</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.01516526141835</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>11.95011455277575</v>
+      </c>
+      <c r="S19">
+        <v>11.85337695200108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.5860423595402</v>
+        <v>14.36975416963923</v>
       </c>
       <c r="C20">
-        <v>9.307210183418292</v>
+        <v>9.521054722402949</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>30.85655502027777</v>
+        <v>31.04999198250879</v>
       </c>
       <c r="F20">
-        <v>40.06869456039892</v>
+        <v>39.86532306505026</v>
       </c>
       <c r="G20">
-        <v>17.86008176070712</v>
+        <v>17.01824351836215</v>
       </c>
       <c r="H20">
-        <v>2.621919344770604</v>
+        <v>2.61408131386766</v>
       </c>
       <c r="I20">
-        <v>3.075906943401108</v>
+        <v>3.08742539287452</v>
       </c>
       <c r="J20">
-        <v>7.889253579161203</v>
+        <v>8.248885422562346</v>
       </c>
       <c r="K20">
-        <v>11.72476341475817</v>
+        <v>11.47845260021751</v>
       </c>
       <c r="L20">
-        <v>5.506111000456064</v>
+        <v>10.14803383898741</v>
       </c>
       <c r="M20">
-        <v>13.1853946810772</v>
+        <v>6.883960468036133</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.490119985811525</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.15818463346578</v>
       </c>
       <c r="P20">
-        <v>11.81768939693094</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.31870081507183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.85561164711279</v>
+      </c>
+      <c r="S20">
+        <v>12.10354046269537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.44261093002186</v>
+        <v>15.13276238136013</v>
       </c>
       <c r="C21">
-        <v>9.739538767551993</v>
+        <v>9.928941468364492</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>32.94877199466939</v>
+        <v>33.29921320817702</v>
       </c>
       <c r="F21">
-        <v>42.27774855671767</v>
+        <v>41.90415029378955</v>
       </c>
       <c r="G21">
-        <v>18.17856196713688</v>
+        <v>19.00783250922089</v>
       </c>
       <c r="H21">
-        <v>2.942815543447665</v>
+        <v>2.926594888855984</v>
       </c>
       <c r="I21">
-        <v>3.214769393893559</v>
+        <v>3.204368277185231</v>
       </c>
       <c r="J21">
-        <v>7.838988331019153</v>
+        <v>7.716103711911767</v>
       </c>
       <c r="K21">
-        <v>11.57303270637559</v>
+        <v>11.23313427973043</v>
       </c>
       <c r="L21">
-        <v>5.619667178720104</v>
+        <v>9.9275706111125</v>
       </c>
       <c r="M21">
-        <v>13.87792342946748</v>
+        <v>6.843901126638638</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.58930214295513</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.77822326617876</v>
       </c>
       <c r="P21">
-        <v>11.7052654377933</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.31707280918689</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>11.7952664785567</v>
+      </c>
+      <c r="S21">
+        <v>11.91517208957191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.98420965469708</v>
+        <v>15.61436297341064</v>
       </c>
       <c r="C22">
-        <v>9.980477390759173</v>
+        <v>10.14580284371249</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>34.02455595299593</v>
+        <v>34.48056349692308</v>
       </c>
       <c r="F22">
-        <v>43.49938437846873</v>
+        <v>43.01107034100951</v>
       </c>
       <c r="G22">
-        <v>18.39057710657319</v>
+        <v>20.44923613731039</v>
       </c>
       <c r="H22">
-        <v>3.136148120991459</v>
+        <v>3.114654821910728</v>
       </c>
       <c r="I22">
-        <v>3.298740617286901</v>
+        <v>3.273273057090857</v>
       </c>
       <c r="J22">
-        <v>7.808462389284644</v>
+        <v>7.436986191252561</v>
       </c>
       <c r="K22">
-        <v>11.48250240685821</v>
+        <v>11.07412551080128</v>
       </c>
       <c r="L22">
-        <v>5.679528188955964</v>
+        <v>9.792479414557315</v>
       </c>
       <c r="M22">
-        <v>14.30453430658202</v>
+        <v>6.828778867401511</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.639509067383107</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.15559923334344</v>
       </c>
       <c r="P22">
-        <v>11.63454708339175</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.32058599130523</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.76219392484224</v>
+      </c>
+      <c r="S22">
+        <v>11.78392513413555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.71108394400071</v>
+        <v>15.37828673476836</v>
       </c>
       <c r="C23">
-        <v>9.829737801960745</v>
+        <v>10.01897854565513</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>33.44426183343055</v>
+        <v>33.82925726833717</v>
       </c>
       <c r="F23">
-        <v>42.86106456495899</v>
+        <v>42.44921266658246</v>
       </c>
       <c r="G23">
-        <v>18.30772959830736</v>
+        <v>19.51239504581135</v>
       </c>
       <c r="H23">
-        <v>3.033597864469908</v>
+        <v>3.015273732603729</v>
       </c>
       <c r="I23">
-        <v>3.250280846873034</v>
+        <v>3.232172949955685</v>
       </c>
       <c r="J23">
-        <v>7.829331919798886</v>
+        <v>7.616722001621986</v>
       </c>
       <c r="K23">
-        <v>11.54241066500742</v>
+        <v>11.1782157755602</v>
       </c>
       <c r="L23">
-        <v>5.648660721848056</v>
+        <v>9.874700072469384</v>
       </c>
       <c r="M23">
-        <v>14.0782280056848</v>
+        <v>6.85584181644763</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.615127518601661</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.96299058178074</v>
       </c>
       <c r="P23">
-        <v>11.66938958734093</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.33069513591657</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>11.7729125387798</v>
+      </c>
+      <c r="S23">
+        <v>11.88354904535258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.60403454000596</v>
+        <v>14.38722060329765</v>
       </c>
       <c r="C24">
-        <v>9.280576625207122</v>
+        <v>9.495486693582951</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>31.17554584981486</v>
+        <v>31.36861994667215</v>
       </c>
       <c r="F24">
-        <v>40.35699313603203</v>
+        <v>40.15395075932425</v>
       </c>
       <c r="G24">
-        <v>17.96955872010033</v>
+        <v>17.11379072932335</v>
       </c>
       <c r="H24">
-        <v>2.636429281698611</v>
+        <v>2.628576739851546</v>
       </c>
       <c r="I24">
-        <v>3.069663315737048</v>
+        <v>3.079120733792923</v>
       </c>
       <c r="J24">
-        <v>7.90603931382913</v>
+        <v>8.268554292389879</v>
       </c>
       <c r="K24">
-        <v>11.75774094315946</v>
+        <v>11.50897386009925</v>
       </c>
       <c r="L24">
-        <v>5.527593707036424</v>
+        <v>10.17012788972678</v>
       </c>
       <c r="M24">
-        <v>13.18602390745776</v>
+        <v>6.909113214774202</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.510885294414646</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.15942959956821</v>
       </c>
       <c r="P24">
-        <v>11.81012728465843</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.36228334954607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.84698637054538</v>
+      </c>
+      <c r="S24">
+        <v>12.14641744221691</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.30057605330739</v>
+        <v>13.15636899042348</v>
       </c>
       <c r="C25">
-        <v>8.657292094376706</v>
+        <v>8.756754319543571</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>28.54345391958374</v>
+        <v>28.69055348779895</v>
       </c>
       <c r="F25">
-        <v>37.51375144779331</v>
+        <v>37.36760693524724</v>
       </c>
       <c r="G25">
-        <v>17.65972922974521</v>
+        <v>16.71716335677923</v>
       </c>
       <c r="H25">
-        <v>2.189269999807172</v>
+        <v>2.188029550138049</v>
       </c>
       <c r="I25">
-        <v>2.869135220113679</v>
+        <v>2.900956361826323</v>
       </c>
       <c r="J25">
-        <v>8.000002755873036</v>
+        <v>8.393610563918729</v>
       </c>
       <c r="K25">
-        <v>12.00644224730019</v>
+        <v>11.78067713268956</v>
       </c>
       <c r="L25">
-        <v>5.391185907369155</v>
+        <v>10.45637968632728</v>
       </c>
       <c r="M25">
-        <v>12.14868696308991</v>
+        <v>6.93953525415221</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.377600598237356</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.13384784874803</v>
       </c>
       <c r="P25">
-        <v>11.97061321724721</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.42397259552446</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.97339124379621</v>
+      </c>
+      <c r="S25">
+        <v>12.25686020217957</v>
       </c>
     </row>
   </sheetData>
